--- a/data/hotels_by_city/Houston/Houston_shard_545.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_545.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d266145-Reviews-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-Willowbrook.h903616.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531616937968&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=6a66455f-e243-49c4-ad2b-b9553699cca2&amp;mctc=9&amp;exp_dp=107.1&amp;exp_ts=1531616938423&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1486 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r577636483-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>266145</t>
+  </si>
+  <si>
+    <t>577636483</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Very old and outdated</t>
+  </si>
+  <si>
+    <t>I have stayed here on several occasions and finally need to write a review. First off, the staff is superb. They honestly cannot be any better and very accommodating. However, the hotel itself is not only older, but poorly maintained as well. I've stayed in many different rooms and each has several issues each time. For the price range, $150-200, you would expect a hotel similar to one within the same SPG family, e.g. Sheraton, Westin, etc., however this place is an upscale Motel 6. If the price range was nearer the $60-80 mark then I would have little to complain about. I am not sure how they continue to be able to charge this considering the competition nearby, I'm only assuming due to corporate accounts. The rooms oftentimes have broken fixtures, knobs, glassware, electronics and furniture. The rooms are dated and no piece of furniture provided is comfortable, much less cleaned, holes repaired, or free of stains. Although they do offer various dinner guest "meet and greets", the food is always what you expect from a low-end hotel, including the breakfast spread. I'd prefer they spend this money on room improvements, reducing cost or simply paying their staff more. Overall, save your money or spend the same amount at a nicer nearby establishment until this place realizes they should be charging a third of what they do.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed here on several occasions and finally need to write a review. First off, the staff is superb. They honestly cannot be any better and very accommodating. However, the hotel itself is not only older, but poorly maintained as well. I've stayed in many different rooms and each has several issues each time. For the price range, $150-200, you would expect a hotel similar to one within the same SPG family, e.g. Sheraton, Westin, etc., however this place is an upscale Motel 6. If the price range was nearer the $60-80 mark then I would have little to complain about. I am not sure how they continue to be able to charge this considering the competition nearby, I'm only assuming due to corporate accounts. The rooms oftentimes have broken fixtures, knobs, glassware, electronics and furniture. The rooms are dated and no piece of furniture provided is comfortable, much less cleaned, holes repaired, or free of stains. Although they do offer various dinner guest "meet and greets", the food is always what you expect from a low-end hotel, including the breakfast spread. I'd prefer they spend this money on room improvements, reducing cost or simply paying their staff more. Overall, save your money or spend the same amount at a nicer nearby establishment until this place realizes they should be charging a third of what they do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r559462891-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559462891</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>A Boneyard with no HBO</t>
+  </si>
+  <si>
+    <t>This is an extended stay review, I am sure one night stays will love this place.  Yes, the hotel has comfortable beds, clean bathrooms and a staff which can smile and provide the corporate policy answer.  The hotel has two distinct atmospheres.  During Monday thru Friday it is a business person's hotel.  On the Weekends the loud swim party crowd from the beltway area moves in.  The hotel is not in a great area of Houston, but there is a large Mall across the street, for what that's worth   This Residence Inn must be the boneyard for Marriott furniture and carpet.  Everything from lights to carpet is old and outdated.  It does NOT have a full kitchen as I saw no ovens.  The morning breakfast is the all you can eat instant eggs and waffles,  with in my humble opinion the worst bread and pastry [or lack of pastry] in the 60+ Marriott I have resided at.   The 3 times a week nightly MIX is a corporate nightmare group-think is pushing on the business traveler.   Give them a beer and wine and all will be happy.   I wish they would nix the mix and improve the quality of the breakfast.  This hotel is government employee friendly however the $121 a night room with the same floor plan with new furniture and no govt discount, in a Denver RI, rents for $85 a night.   Your stay here will still be better...This is an extended stay review, I am sure one night stays will love this place.  Yes, the hotel has comfortable beds, clean bathrooms and a staff which can smile and provide the corporate policy answer.  The hotel has two distinct atmospheres.  During Monday thru Friday it is a business person's hotel.  On the Weekends the loud swim party crowd from the beltway area moves in.  The hotel is not in a great area of Houston, but there is a large Mall across the street, for what that's worth   This Residence Inn must be the boneyard for Marriott furniture and carpet.  Everything from lights to carpet is old and outdated.  It does NOT have a full kitchen as I saw no ovens.  The morning breakfast is the all you can eat instant eggs and waffles,  with in my humble opinion the worst bread and pastry [or lack of pastry] in the 60+ Marriott I have resided at.   The 3 times a week nightly MIX is a corporate nightmare group-think is pushing on the business traveler.   Give them a beer and wine and all will be happy.   I wish they would nix the mix and improve the quality of the breakfast.  This hotel is government employee friendly however the $121 a night room with the same floor plan with new furniture and no govt discount, in a Denver RI, rents for $85 a night.   Your stay here will still be better than a Motel 4+2, and you earn Marriott points.    Really no HBO!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>This is an extended stay review, I am sure one night stays will love this place.  Yes, the hotel has comfortable beds, clean bathrooms and a staff which can smile and provide the corporate policy answer.  The hotel has two distinct atmospheres.  During Monday thru Friday it is a business person's hotel.  On the Weekends the loud swim party crowd from the beltway area moves in.  The hotel is not in a great area of Houston, but there is a large Mall across the street, for what that's worth   This Residence Inn must be the boneyard for Marriott furniture and carpet.  Everything from lights to carpet is old and outdated.  It does NOT have a full kitchen as I saw no ovens.  The morning breakfast is the all you can eat instant eggs and waffles,  with in my humble opinion the worst bread and pastry [or lack of pastry] in the 60+ Marriott I have resided at.   The 3 times a week nightly MIX is a corporate nightmare group-think is pushing on the business traveler.   Give them a beer and wine and all will be happy.   I wish they would nix the mix and improve the quality of the breakfast.  This hotel is government employee friendly however the $121 a night room with the same floor plan with new furniture and no govt discount, in a Denver RI, rents for $85 a night.   Your stay here will still be better...This is an extended stay review, I am sure one night stays will love this place.  Yes, the hotel has comfortable beds, clean bathrooms and a staff which can smile and provide the corporate policy answer.  The hotel has two distinct atmospheres.  During Monday thru Friday it is a business person's hotel.  On the Weekends the loud swim party crowd from the beltway area moves in.  The hotel is not in a great area of Houston, but there is a large Mall across the street, for what that's worth   This Residence Inn must be the boneyard for Marriott furniture and carpet.  Everything from lights to carpet is old and outdated.  It does NOT have a full kitchen as I saw no ovens.  The morning breakfast is the all you can eat instant eggs and waffles,  with in my humble opinion the worst bread and pastry [or lack of pastry] in the 60+ Marriott I have resided at.   The 3 times a week nightly MIX is a corporate nightmare group-think is pushing on the business traveler.   Give them a beer and wine and all will be happy.   I wish they would nix the mix and improve the quality of the breakfast.  This hotel is government employee friendly however the $121 a night room with the same floor plan with new furniture and no govt discount, in a Denver RI, rents for $85 a night.   Your stay here will still be better than a Motel 4+2, and you earn Marriott points.    Really no HBO!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r556322543-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556322543</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>my other home</t>
+  </si>
+  <si>
+    <t>I absolutely love this place. My kids love the amenities and we love the staff. From the front desk girls to the housekeeping we are always greeted with a smile and wonderful words. The breakfast is always good and love The In The Mix night . Current updates being made and it looks so classy with some Texas sassy. We have stayed at others and we always cant wait to come back here. We went from short few nights to extended stay and still love it. Grounds are very well kept and nice oak trees to take pets out and just sit in sun. Most of all we feel at home !!!! Oh hot tub gets very hot and pool stays good to so kids can play and parents relax or sit in courtyard and bask in the sunMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2018</t>
+  </si>
+  <si>
+    <t>I absolutely love this place. My kids love the amenities and we love the staff. From the front desk girls to the housekeeping we are always greeted with a smile and wonderful words. The breakfast is always good and love The In The Mix night . Current updates being made and it looks so classy with some Texas sassy. We have stayed at others and we always cant wait to come back here. We went from short few nights to extended stay and still love it. Grounds are very well kept and nice oak trees to take pets out and just sit in sun. Most of all we feel at home !!!! Oh hot tub gets very hot and pool stays good to so kids can play and parents relax or sit in courtyard and bask in the sunMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r522788749-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522788749</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Well managed Hotel, great staff, conveniently located- what else do you need?Had a great time as every year and will be back for shure next year.Good seeing that some necessary Hardware replacements have been taken care ofand seem to be still going on.We love this place.Thanks for everythingMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2017</t>
+  </si>
+  <si>
+    <t>Well managed Hotel, great staff, conveniently located- what else do you need?Had a great time as every year and will be back for shure next year.Good seeing that some necessary Hardware replacements have been taken care ofand seem to be still going on.We love this place.Thanks for everythingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r510775957-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510775957</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>For the money it was ok but for Mariott standard it is a disappointment.</t>
+  </si>
+  <si>
+    <t>Checkin, check out and staff made up for this out dated property. Everything needs to be torn down and redone basically. Worse part were the pillows. We went there to go to NASA next day but due to poor quality pillows, we had a hard time sleeping all night and had neck pains the next day. So, visiting NASA as excited we were but we were so tired from lack of sleep because of bed and pillow at the hotel. Bathroom had stains etc. It is out dated but like I said, for the price it is ok but for Marriott standards its disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Checkin, check out and staff made up for this out dated property. Everything needs to be torn down and redone basically. Worse part were the pillows. We went there to go to NASA next day but due to poor quality pillows, we had a hard time sleeping all night and had neck pains the next day. So, visiting NASA as excited we were but we were so tired from lack of sleep because of bed and pillow at the hotel. Bathroom had stains etc. It is out dated but like I said, for the price it is ok but for Marriott standards its disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r474657042-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474657042</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Delightful, clean and convient</t>
+  </si>
+  <si>
+    <t>While staying for a business trip, I was here for almost 2 weeks. My room was clean, updated, and convient to where I was working. It is also close to the mall and several good eating establishments ( BJs and bone house- don't go to TGI Friday's). Breakfast was typical continental but worked for me. There's a little kitchenette, table, desk and sleeper sofa. Gym leaves something to be desired as it's just a treadmill and some hand weights basically. Hot tub was decent. Didn't use the pool. Several areas around the property were okay for studying with my group. Would certainly stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>While staying for a business trip, I was here for almost 2 weeks. My room was clean, updated, and convient to where I was working. It is also close to the mall and several good eating establishments ( BJs and bone house- don't go to TGI Friday's). Breakfast was typical continental but worked for me. There's a little kitchenette, table, desk and sleeper sofa. Gym leaves something to be desired as it's just a treadmill and some hand weights basically. Hot tub was decent. Didn't use the pool. Several areas around the property were okay for studying with my group. Would certainly stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r463497059-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463497059</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Not what I expected...in a bad way</t>
+  </si>
+  <si>
+    <t>Traveling with 2 other colleagues and stayed here Feb. 21-23. 2 of us are Platinum Elite Marriott; 1 Gold Elite, so we travel alot. All 3 of us were unimpressed.This was one of the more dated Residence Inn's I have stayed at in some time. Hopefully it on their list for a renovation/refresh. Got in late and was given a room with stains all over the carpet. Asked for a new room and the next one I got also had stains (but not as bad). How on earth can you rent out rooms with carpets like that? Replace your carpets! They are gross - my colleagues said the same thing. The bathrooms were also in need of a reno. Honestly, everything was old and dated about this hotel. I will not be back until it's renovated.On the positive side, the staff were friendly and apologetic about the room...MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Traveling with 2 other colleagues and stayed here Feb. 21-23. 2 of us are Platinum Elite Marriott; 1 Gold Elite, so we travel alot. All 3 of us were unimpressed.This was one of the more dated Residence Inn's I have stayed at in some time. Hopefully it on their list for a renovation/refresh. Got in late and was given a room with stains all over the carpet. Asked for a new room and the next one I got also had stains (but not as bad). How on earth can you rent out rooms with carpets like that? Replace your carpets! They are gross - my colleagues said the same thing. The bathrooms were also in need of a reno. Honestly, everything was old and dated about this hotel. I will not be back until it's renovated.On the positive side, the staff were friendly and apologetic about the room...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r461018055-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461018055</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Customer Service and Management</t>
+  </si>
+  <si>
+    <t>The hotel is very well run and clean.  Upon checking in I was nicely greeted and when I had a small issue the receptionist Ariel provided a perfect solution.  I later spoke to the General Manager Joseph and I could immediately tell why I would come back to this hotel.  It is well run and very well organized.  I would highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very well run and clean.  Upon checking in I was nicely greeted and when I had a small issue the receptionist Ariel provided a perfect solution.  I later spoke to the General Manager Joseph and I could immediately tell why I would come back to this hotel.  It is well run and very well organized.  I would highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r459276144-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459276144</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Good room rate and location!</t>
+  </si>
+  <si>
+    <t>We picked this Residence Inn because of the good rate and location. We flew into George Bush Intercontinental Airport, rented a car and had an easy drive to the hotel.  We arrived around 2 PM and our room was ready. Check in was fast and easy. 
+Our one bedroom suite was very compact; it included a small kitchen with a two person table, TV area with a recliner and couch, a desk and a coat closet.  The bedroom had a queen sized bed, sink, closet, and a small room with a toilet, a bath tub that included a shower.
+The suite was clean except for the carpet, which had a lot of dirty spots.  The couch in the living area was extremely uncomfortable, almost unusable. Our bed was comfortable, although we would have preferred a king size – that was not available in the one room suite, I am guessing because of how small the room was.  The air conditioning worked very well, we set it at 66 degrees and kept the fan running. There was not an room safe; there was an ironing board and iron.  The hair dryer was not powerful and could only be used in the bathroom area.
+My main complaint about the room was that I could not sleep if my husband got up early, between the bathroom lights and the noise of the running water I didn’t have a chance of sleeping through it....We picked this Residence Inn because of the good rate and location. We flew into George Bush Intercontinental Airport, rented a car and had an easy drive to the hotel.  We arrived around 2 PM and our room was ready. Check in was fast and easy. Our one bedroom suite was very compact; it included a small kitchen with a two person table, TV area with a recliner and couch, a desk and a coat closet.  The bedroom had a queen sized bed, sink, closet, and a small room with a toilet, a bath tub that included a shower.The suite was clean except for the carpet, which had a lot of dirty spots.  The couch in the living area was extremely uncomfortable, almost unusable. Our bed was comfortable, although we would have preferred a king size – that was not available in the one room suite, I am guessing because of how small the room was.  The air conditioning worked very well, we set it at 66 degrees and kept the fan running. There was not an room safe; there was an ironing board and iron.  The hair dryer was not powerful and could only be used in the bathroom area.My main complaint about the room was that I could not sleep if my husband got up early, between the bathroom lights and the noise of the running water I didn’t have a chance of sleeping through it.  I wish there had been a door closing off the bedroom from the bathroom.The internet worked fine.  There was a printer in the lobby, it was out of order so we could not print our boarding passes.  There is a large guest laundry room on the 2nd floor, we did not use it but it looked very nice - $1.50 per wash, $1.50 per dryer.  Laundry detergent and change was available at the front desk. The breakfast was nothing special: icky scrambled eggs, bacon one morning, sausage the other two mornings.  The fresh fruit was pretty good, there was also bread, yogurt, cereal and a waffle maker.  Biscuits and gravy were available one morning, I don’t care for them, but my husband said they were pretty good – the biscuits were very dry and really needed the gravy. I enjoyed the coffee.I am giving this hotel an average rating because it needs a remodel, the carpeting is dirty and wear and tear shows throughout.  We are in Houston every few months and would stay at this hotel again if the circumstances were right.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>We picked this Residence Inn because of the good rate and location. We flew into George Bush Intercontinental Airport, rented a car and had an easy drive to the hotel.  We arrived around 2 PM and our room was ready. Check in was fast and easy. 
+Our one bedroom suite was very compact; it included a small kitchen with a two person table, TV area with a recliner and couch, a desk and a coat closet.  The bedroom had a queen sized bed, sink, closet, and a small room with a toilet, a bath tub that included a shower.
+The suite was clean except for the carpet, which had a lot of dirty spots.  The couch in the living area was extremely uncomfortable, almost unusable. Our bed was comfortable, although we would have preferred a king size – that was not available in the one room suite, I am guessing because of how small the room was.  The air conditioning worked very well, we set it at 66 degrees and kept the fan running. There was not an room safe; there was an ironing board and iron.  The hair dryer was not powerful and could only be used in the bathroom area.
+My main complaint about the room was that I could not sleep if my husband got up early, between the bathroom lights and the noise of the running water I didn’t have a chance of sleeping through it....We picked this Residence Inn because of the good rate and location. We flew into George Bush Intercontinental Airport, rented a car and had an easy drive to the hotel.  We arrived around 2 PM and our room was ready. Check in was fast and easy. Our one bedroom suite was very compact; it included a small kitchen with a two person table, TV area with a recliner and couch, a desk and a coat closet.  The bedroom had a queen sized bed, sink, closet, and a small room with a toilet, a bath tub that included a shower.The suite was clean except for the carpet, which had a lot of dirty spots.  The couch in the living area was extremely uncomfortable, almost unusable. Our bed was comfortable, although we would have preferred a king size – that was not available in the one room suite, I am guessing because of how small the room was.  The air conditioning worked very well, we set it at 66 degrees and kept the fan running. There was not an room safe; there was an ironing board and iron.  The hair dryer was not powerful and could only be used in the bathroom area.My main complaint about the room was that I could not sleep if my husband got up early, between the bathroom lights and the noise of the running water I didn’t have a chance of sleeping through it.  I wish there had been a door closing off the bedroom from the bathroom.The internet worked fine.  There was a printer in the lobby, it was out of order so we could not print our boarding passes.  There is a large guest laundry room on the 2nd floor, we did not use it but it looked very nice - $1.50 per wash, $1.50 per dryer.  Laundry detergent and change was available at the front desk. The breakfast was nothing special: icky scrambled eggs, bacon one morning, sausage the other two mornings.  The fresh fruit was pretty good, there was also bread, yogurt, cereal and a waffle maker.  Biscuits and gravy were available one morning, I don’t care for them, but my husband said they were pretty good – the biscuits were very dry and really needed the gravy. I enjoyed the coffee.I am giving this hotel an average rating because it needs a remodel, the carpeting is dirty and wear and tear shows throughout.  We are in Houston every few months and would stay at this hotel again if the circumstances were right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r438290004-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438290004</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>We ended up staying an extended period of time in Houston at the Residence Inn Willowbrook.  It is a basic but sufficient hotel.  Rooms are one or two bedroom suites, indoor pool and hot tub, "mixers" Monday-Wednesday night (free food and beverages), tennis court and basketball goal.  The staff was friendly and helpful.  The hotel is next to Willowbrook Mall along with many stores and restaurants in the area.  State Highway 249 and Beltway 8 offer easy access to where you want to go.  The hotel offered very reasonable rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>We ended up staying an extended period of time in Houston at the Residence Inn Willowbrook.  It is a basic but sufficient hotel.  Rooms are one or two bedroom suites, indoor pool and hot tub, "mixers" Monday-Wednesday night (free food and beverages), tennis court and basketball goal.  The staff was friendly and helpful.  The hotel is next to Willowbrook Mall along with many stores and restaurants in the area.  State Highway 249 and Beltway 8 offer easy access to where you want to go.  The hotel offered very reasonable rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r437788852-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437788852</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>For the $$, good place to stay!</t>
+  </si>
+  <si>
+    <t>Recently in town for a wedding and needed a place to stay in this area. The location was perfect for us and it is easy access to highways in the area. The property can be a challenge to get out of based on traffic on Greens Rd., but that Houston! The room was clean, lobby in good shape, bed comfortable, and the staff was friendly and accommodating. There was a bit of road noise based on proximity to highways, but it was not overwhelming and very tolerable.Overall I would recommend the property and would stay again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently in town for a wedding and needed a place to stay in this area. The location was perfect for us and it is easy access to highways in the area. The property can be a challenge to get out of based on traffic on Greens Rd., but that Houston! The room was clean, lobby in good shape, bed comfortable, and the staff was friendly and accommodating. There was a bit of road noise based on proximity to highways, but it was not overwhelming and very tolerable.Overall I would recommend the property and would stay again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r435627385-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435627385</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Needs Updating</t>
+  </si>
+  <si>
+    <t>The property is outdated.  I think all the furniture needs to be replaced.  I found the queen bed to be way too soft and uncomfortable.  The staff however is great, very friendly and helpful.  Breakfast is pretty much average.  I won't say that it's a bad hotel, but it does need some work.  Good location and close to lots of restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>The property is outdated.  I think all the furniture needs to be replaced.  I found the queen bed to be way too soft and uncomfortable.  The staff however is great, very friendly and helpful.  Breakfast is pretty much average.  I won't say that it's a bad hotel, but it does need some work.  Good location and close to lots of restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r412892183-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412892183</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sister's 50th Birthday </t>
+  </si>
+  <si>
+    <t>My husband's sister lives in Spring, TX and she was having a party for her 50th birthday.  My husband and I as well as several of her friends from out of town stayed here. The front desk staff was very friendly. We were happy with the hotel and our room. The room has a fridge, cook top, pots and dishware and glassware. The bed was very comfortable. Breakfast is everyday from 6am until 9am. They had a wide variety of choices for example they had different breads, oatmeal, eggs,sausage, yogurt,cereal, waffles and more.  Something for everyone.  The hotel has a small fitness room and an indoor pool.  We were very happy with our stay and we highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>My husband's sister lives in Spring, TX and she was having a party for her 50th birthday.  My husband and I as well as several of her friends from out of town stayed here. The front desk staff was very friendly. We were happy with the hotel and our room. The room has a fridge, cook top, pots and dishware and glassware. The bed was very comfortable. Breakfast is everyday from 6am until 9am. They had a wide variety of choices for example they had different breads, oatmeal, eggs,sausage, yogurt,cereal, waffles and more.  Something for everyone.  The hotel has a small fitness room and an indoor pool.  We were very happy with our stay and we highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r390258992-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390258992</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Excellent choice!!</t>
+  </si>
+  <si>
+    <t>Was here on business and my elderly mother came along. Great location and the rooms were very clean. The front desk lady I believe her name was Phylis, She assisted my mother on a daily basis with answering questions to finding her places to eat. She made our trip feel like being right at home. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Was here on business and my elderly mother came along. Great location and the rooms were very clean. The front desk lady I believe her name was Phylis, She assisted my mother on a daily basis with answering questions to finding her places to eat. She made our trip feel like being right at home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r373376539-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373376539</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Very Clean Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting nearby family. The hotel is very convenient to HWY 249 and nearby tollway. The hotel is just 1 block off the highway but setting is more like being in a neighborhood. Rooms are extremely spacious with nice fully equipped kitchens. They offer a happy hour during midweek which we were not there for but daily breakfast very goodMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting nearby family. The hotel is very convenient to HWY 249 and nearby tollway. The hotel is just 1 block off the highway but setting is more like being in a neighborhood. Rooms are extremely spacious with nice fully equipped kitchens. They offer a happy hour during midweek which we were not there for but daily breakfast very goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r356872066-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356872066</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Oldie but goodie</t>
+  </si>
+  <si>
+    <t>Staying here for a 17 night business trip.  The first evening I arrived I was a little worried.  The hotel seemed a little old... Lamp shades broken, marks on walls as you walked down the hall, scribbles on the furniture. As time went on I barely noticed these things.  What I did notice was the complementary snacks and drinks Monday through Wednesday night, the convenient dry cleaning service, the patio with fire pit, the warm and friendly staff at the front desk, and the fact that my bed was always made at the end of my very long days.  Breakfast in the morning is free but can get a little old after 17 days... The fruit parfait is the best.  Thank you Residence Inn.   MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Staying here for a 17 night business trip.  The first evening I arrived I was a little worried.  The hotel seemed a little old... Lamp shades broken, marks on walls as you walked down the hall, scribbles on the furniture. As time went on I barely noticed these things.  What I did notice was the complementary snacks and drinks Monday through Wednesday night, the convenient dry cleaning service, the patio with fire pit, the warm and friendly staff at the front desk, and the fact that my bed was always made at the end of my very long days.  Breakfast in the morning is free but can get a little old after 17 days... The fruit parfait is the best.  Thank you Residence Inn.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r355137156-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355137156</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service excellence </t>
+  </si>
+  <si>
+    <t>I am currently staying at this location for a 17 day business trip. The hotel has been 100% accommodating, this is the 1st time I have ever stayed at a Residence Inn and would highly recommend this one to anyone travelling to this area. The best experience I have had so far was dealing with Phyllis, she has provided excellent service in every way I could think of. She also is very pleasant and great to talk to.. Thank you Phyllis for doing an awesome jobMoreShow less</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>I am currently staying at this location for a 17 day business trip. The hotel has been 100% accommodating, this is the 1st time I have ever stayed at a Residence Inn and would highly recommend this one to anyone travelling to this area. The best experience I have had so far was dealing with Phyllis, she has provided excellent service in every way I could think of. She also is very pleasant and great to talk to.. Thank you Phyllis for doing an awesome jobMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r347212205-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347212205</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just ok! </t>
+  </si>
+  <si>
+    <t>First visit to America! Stayed for 2 nights on a quick business trip to Houston. Spent the majority of my time in Houston in the hotel. Breakfast poor and all hot food was cold. No bar or restaurant to eat in. Couldn't even get a coffee except at breakfast. Rooms spacious and well equipped. Bed very comfortable. Enjoyed my stay but would probably stay elsewhere if I returned. I'm sure Houston would have more to offer. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2016</t>
+  </si>
+  <si>
+    <t>First visit to America! Stayed for 2 nights on a quick business trip to Houston. Spent the majority of my time in Houston in the hotel. Breakfast poor and all hot food was cold. No bar or restaurant to eat in. Couldn't even get a coffee except at breakfast. Rooms spacious and well equipped. Bed very comfortable. Enjoyed my stay but would probably stay elsewhere if I returned. I'm sure Houston would have more to offer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r304034552-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304034552</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Great personnel made the difference</t>
+  </si>
+  <si>
+    <t>Had a brief stay over this past weekend with my family. The room and the amenities were nice and comforting, but the hospitality that was shown by PHYLLIS HARVEY, (the lady at front deck) completed the ultimate package. Her efforts felt genuine and very professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Had a brief stay over this past weekend with my family. The room and the amenities were nice and comforting, but the hospitality that was shown by PHYLLIS HARVEY, (the lady at front deck) completed the ultimate package. Her efforts felt genuine and very professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r284023597-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284023597</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, roomy accommodations</t>
+  </si>
+  <si>
+    <t>When always traveling to the Tomball area, we always stay here.  It's across the street from a mall and there are many restaurants near by.  We had a 2 BR unit with a full kitchen and queen size beds in each bedroom.  Flip the switch on the wall and you can enjoy a fire!  Nicely stocked kitchen and comfortable room.  Staff was very friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>When always traveling to the Tomball area, we always stay here.  It's across the street from a mall and there are many restaurants near by.  We had a 2 BR unit with a full kitchen and queen size beds in each bedroom.  Flip the switch on the wall and you can enjoy a fire!  Nicely stocked kitchen and comfortable room.  Staff was very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r274923060-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274923060</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Awesome Hotel!</t>
+  </si>
+  <si>
+    <t>We've never been happier with a hotel. The room was perfectly clean, with a good basic kitchen, comfy beds, and an awesome shower. The pool and hot tub were great, and there was a really nice outdoor patio area with a barbecue and fire pit. Breakfast was delicious and had a good variety. Lastly, the staff was friendly and aimed to please. If I had to come up with something to complain about, I guess I'd say that the only blankets on the beds were too heavy unless you were really going to crank the AC. They'd do well to provide something lighter. But we would have loved to stay there longer! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>We've never been happier with a hotel. The room was perfectly clean, with a good basic kitchen, comfy beds, and an awesome shower. The pool and hot tub were great, and there was a really nice outdoor patio area with a barbecue and fire pit. Breakfast was delicious and had a good variety. Lastly, the staff was friendly and aimed to please. If I had to come up with something to complain about, I guess I'd say that the only blankets on the beds were too heavy unless you were really going to crank the AC. They'd do well to provide something lighter. But we would have loved to stay there longer! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r242912507-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242912507</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Will return</t>
+  </si>
+  <si>
+    <t>We have family in Houston and recently stayed at this hotel during a visit.  It was comfortable, roomy and easy to get to.  The exercise room was small, but had hand weights and a bench in addition to three aerobic machines which I was surprised to find because it was so small.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded December 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2014</t>
+  </si>
+  <si>
+    <t>We have family in Houston and recently stayed at this hotel during a visit.  It was comfortable, roomy and easy to get to.  The exercise room was small, but had hand weights and a bench in addition to three aerobic machines which I was surprised to find because it was so small.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r227945389-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227945389</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>What does someone who is not a guess at this hotel look like?</t>
+  </si>
+  <si>
+    <t>I delayed writing this review to allow this hotel and Marriott the opportunity to address this matter. They have not done so to my satisfaction.
+I am a Marriott’s Reward Gold member which means last year I stayed at a Marriott hotel at least 50 times last year.  Over the past 16 months my wife and I have stayed at Marriott properties in St. Kitts, Aruba, London, Paris, Rome, Amsterdam, and Monte Carlo. So how is it that my wife looks like someone who obviously is not a guest at a Residence Inn in Houston! 
+My wife and I arrived at the Residence Inn Residence Inn Houston Northwest/Willowbrook  at 2am in the morning Saturday August 23 after what had been a very long and difficult day. Our check-in process was smooth and seamless; the young lady behind the desk was very friendly and professional.  This gave us no precursor as to what would lie ahead for us later that morning.
+At approximately 9:10am my wife and granddaughter went down to get some breakfast which is complimentary to guests.  When she arrive in the breakfast area she observed a different member of the hotel staff pleasantly greeting guests who were taking part of breakfast; none of whom looked like her. 
+As my wife was sitting down at the table with our granddaughter the employee walked up to her and the only thing she said was “what is your name”?  My wife...I delayed writing this review to allow this hotel and Marriott the opportunity to address this matter. They have not done so to my satisfaction.I am a Marriott’s Reward Gold member which means last year I stayed at a Marriott hotel at least 50 times last year.  Over the past 16 months my wife and I have stayed at Marriott properties in St. Kitts, Aruba, London, Paris, Rome, Amsterdam, and Monte Carlo. So how is it that my wife looks like someone who obviously is not a guest at a Residence Inn in Houston! My wife and I arrived at the Residence Inn Residence Inn Houston Northwest/Willowbrook  at 2am in the morning Saturday August 23 after what had been a very long and difficult day. Our check-in process was smooth and seamless; the young lady behind the desk was very friendly and professional.  This gave us no precursor as to what would lie ahead for us later that morning.At approximately 9:10am my wife and granddaughter went down to get some breakfast which is complimentary to guests.  When she arrive in the breakfast area she observed a different member of the hotel staff pleasantly greeting guests who were taking part of breakfast; none of whom looked like her. As my wife was sitting down at the table with our granddaughter the employee walked up to her and the only thing she said was “what is your name”?  My wife gave her first name. The staff member then said “what is your full name and room number”?  My wife provided her full name and room number. She was curious as to why she was being asked these questions given that she did not observe the staff member asking any other guest these questions as they arrived to partake of breakfast.Upon completion of their breakfast my wife approached the counter to speak with the staff member who was a young lady. The conversation went as follows:Wife: “Why did you ask me my name and room number?”Staff Member: “I was just asking”Wife:  “You greeted all the other people but only asked me my name &amp; room #. Did you find me in your system”?  Staff Member:  “Yes, you gave me the wrong room number, you are in room 213”  Wife:  “Why did you ask for my room # again?”Staff Member:  “I do not know you”Wife: “Why would you?. We checked in after 1am this morning.”Staff Member: “I had not seen you and I know every guest in the hotel.”  You didn’t look like someone who is supposed to be here. Wife: ”What?”Staff Member:  “You looked like someone who is not a guest” Wife: “So you know every guest in the hotel and I look like someone who is not a guest.” Staff Member: “Yes”Wife: “I need your name” The staff member said her first name. Wife: “I need you to write that down for me”She wrote her first name down which seemed to be Raquel, it was hard to read; along with my correct room number on a pink sticky and handed it to me. Wife:  “I do not need my room number I need your full name.”Staff Member: “That is private information.”Wife: “I need your full name”She disregarded the request and walked away from the reception desk as my wife was still standing there. My wife came upstairs and informed me of what had occurred.   Upon my wife recanting the events to me I went downstairs to talk to the young lady. When I arrived at the desk she was assisting another guest. I stood there patiently saying nothing for about ten minutes while she assisted the guest with check-out and a shuttle to the airport.When she had finished assisting the other guest, I asked her what time she came on shift. She said 7am. I then asked her, what time did she get off yesterday. She said 11. I asked her did she know what the word omnipotent means and if so was she.  She said that she knew what the word meant and that she was not.  I then said, unless you are omnipresent then you can’t tell someone that you know every guest in this hotel.  I asked her exactly what does someone who does not look like a guest at this hotel look like. She started telling me that homeless people have been coming in and trying to eat breakfast. I said to her, so now my wife looks like a homeless person? I asked to speak to a manager she said one was not on duty. I requested that she call one she said no. I said I need your full name. She refused to provide it. I told her that I was a Gold member. I asked her if she understood how Marriott expects its elite members to be treated. She said yes.I said you have an attitude problem; you owe my wife an apology. She said if you do not leave I am calling the police. I said go ahead I have not threaten you, I have not done anything. I stood there as she called the police. After she called them she grab the phone, left the desk area going around the corner completely out of sight and called a manager name Diana Diaz. As she is talking I yelled I want to talk to the manager, that’s not true multiple times as she was lying. She told the manager that I was causing a disturbance while other guests were at the desk, there was not only no one at the desk, and there was no one in the halls. When Officer Lin arrived he talked to her and then he talked to me and my wife. After talking to both of us he said "this is just a simple misunderstanding" and asked the staff member to apologize. She refused. Given that there was not anything that occurred worthy of even calling the police let alone arresting anyone, the officer was about to leave. As he was leaving the staff member said “she wants to talk to you” and handed Officer Lin the phone. I heard him say “why is that necessary? This was just a simple misunderstanding”. He listened for a few minutes and then said OK and handed the staff member the phone.He turned to us and said “I do not understand why they are doing this, but they want off their property”. I asked the staff member was I going to be charged for the day given that we did not arrive until about 2am. She said we would be. I told him in the presence of the staff member that neither of us had showered, so we would leave after doing so. My wife headed back upstairs.Officer Lin repeated again that he did not understand why they were insisting on this. He engaged me in a conversation about customer service and in this case the lack of it. He apologized to me saying he was sorry this was happening.  I went upstairs to take my shower and pack our things.About 10 minutes later while I was in the shower and my wife was getting dressed, my granddaughter says “someone is knocking on the door”.  I get out of the shower, throw something on and answer the door. It is Officer Lin and the Staff member.  The staff member is standing about two steps behind Officer Lin.  Officer Lin says “I’m sorry; they say they want you out right now”.  I said to the staff member, “why do you keep escalating this, we said we would leave after we took a shower”.  She just rolled her eyes at me and smirked. I told Officer Lin that as we indicated, we would leave after we both had showered and dressed.After we both were dressed and packed we proceeded downstairs to checkout. Seeing that Officer Lin was still there, I asked him to come up to the room to look at it so to confirm that we had not damaged the room in any way.  Officer Lin did as I requested. After that we checked out and left.I had contacted customer service while at the hotel, so I later received the following email from the Assistant Manager at the hotel Ms. Diaz:“Good evening Mr. Davis,I was saddened to hear about your recent stay at our property. Please accept my apologies on behalf of Residence Inn/ Willowbrook. You’re a valued customer ; everything we do is aimed at providing you with an excellent hotel experience. Please be assured that we are taking immediate corrective steps to avoid such problems in the future. Your feedback is extremely valuable and we truly appreciate you reaching out to us. If you would like to discuss your experience further, please feel free to contact me directly at the phone number listed below. Once again, please accept my apology. We would like to regain your trust and we hope you will allow us an opportunity to provide you with an exceptional guest experience when your travels bring you back to this area.Yours in Hospitality,Diana DiazAsst. General Manager/Willowbrook”I found this email insulting given that Ms. Diaz can’t be “saddened to hear about your recent stay at our property.”, when she was an active participant in what occurred. She decided to have me removed from the property when she had multiple opportunities to talk to me prior and refused.I called the General Manager Angie Hernandez. She insulted me further by telling me that even though Diana had sent an apology, she explicitly stated “I do not believe either of my staff did anything wrong”. I asked her had she talked to Officer Lin. She said no. I asked her if she had reviewed the video. She said they did not have the capability to do so.  I said, so you have decided that neither of your staff members did anything wrong without talking to the officer, reviewing video, or talking to me.  She also started telling me about people eating there that were not guests. I told her regardless of what is going on at the hotel you either question everyone or you question nobody, when you have a policy or procedure that leaves it up to staff to determine who to question based on whether THEY believe the person LOOKS like a guest, this is what happens. I told her about Raquel showing up at the door after she had previously been told we would leave after we showered.  Ms. Hernandez said that she did not know that Raquel knew that we had said we would leave after we showered when she showed up at the door 10 minutes later. She said that Raquel had indicated that she came to the room to tell us for the FIRST time that we had to leave.  She said that should not have happened. I told her that if she had talked to me or Officer Lin she would have known that. I said obviously neither one of them have been honest with you, do you really think either one of them would volunteer information that would get them in trouble? She said she would refund the hotel charge. I said if you really believe your staff did nothing wrong why would you do so?In summary:Neither the Assistant Manager; Ms. Diaz or her boss Ms. Hernandez did due diligence in investigating this matter.  Even in my conversation with Ms. Hernandez she never asked me what happened and allowed me to tell my side of the story from beginning to end. What she did say to me was that you did not believe that either of your staff did anything wrong. If that is the case why offer an empty apology. For clarification, I stood at the counter for at least 10 minutes while the young lady waited on another guest. I never said a word to her. The video will show this. Nobody charged down to the desk and began yelling and screaming at her. Raquel is the one who refused to allow me to talk to a manager while taking the phone around the corner completely out of sight to call one. The reason the assistant manager Ms. Diaz heard me yelling was that was the only way to communicate with someone who has removed herself completely from eyesight. The video will confirm that also. I never cursed at her and in fact did not even raise my voice until she walked away out of sight.It was the police officer who asked Raquel to apologize which she refused to do. It was the assistant manager; Ms. Diaz who insisted we must leave without ever talking to me and in spite of Officer Lin's objections.After we were told while in the lobby as witnessed by Officer Lin that we had to leave and indicated that we would do so after we took showers, it was the staff member Raquel who showed up at our room 10 minutes later with the police office trying to put us out while making faces and rolling her eyes.As the officer indicated this situation was a misunderstanding. Because of the rude and unprofessional behavior of all of the staff including management the situation was made worse. They are the ones who at every step chose to escalate the situation.  A review of the video will reveal there is no pointing of fingers, no cursing, flailing of arms or any other threatening moves being made by me. Why did the police even need to be called?Officer Lin should be commended for the professionalism and objectivity that he demonstrated.However, none of these facts mattered to any of the management at the hotel because as the General Manager Ms. Hernandez stated in our phone conversation, she had already decided without ever talking to me,  the officer, or reviewing video that her staff members did nothing wrong. No investigation, no objectivity. Does Ms. Hernandez really think either one of them would admit to something that would get them in trouble? If she does, then she is not a very wise manager.If you haven’t figured it out yet we are African American. Given that Ms. Hernandez does not believe that her staff did anything wrong, we can conclude that the policy of SELECTIVELY questioning guests will continue. So my question is the same one I asked her, what does someone who obviously is not a guess at this hotel look like?MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I delayed writing this review to allow this hotel and Marriott the opportunity to address this matter. They have not done so to my satisfaction.
+I am a Marriott’s Reward Gold member which means last year I stayed at a Marriott hotel at least 50 times last year.  Over the past 16 months my wife and I have stayed at Marriott properties in St. Kitts, Aruba, London, Paris, Rome, Amsterdam, and Monte Carlo. So how is it that my wife looks like someone who obviously is not a guest at a Residence Inn in Houston! 
+My wife and I arrived at the Residence Inn Residence Inn Houston Northwest/Willowbrook  at 2am in the morning Saturday August 23 after what had been a very long and difficult day. Our check-in process was smooth and seamless; the young lady behind the desk was very friendly and professional.  This gave us no precursor as to what would lie ahead for us later that morning.
+At approximately 9:10am my wife and granddaughter went down to get some breakfast which is complimentary to guests.  When she arrive in the breakfast area she observed a different member of the hotel staff pleasantly greeting guests who were taking part of breakfast; none of whom looked like her. 
+As my wife was sitting down at the table with our granddaughter the employee walked up to her and the only thing she said was “what is your name”?  My wife...I delayed writing this review to allow this hotel and Marriott the opportunity to address this matter. They have not done so to my satisfaction.I am a Marriott’s Reward Gold member which means last year I stayed at a Marriott hotel at least 50 times last year.  Over the past 16 months my wife and I have stayed at Marriott properties in St. Kitts, Aruba, London, Paris, Rome, Amsterdam, and Monte Carlo. So how is it that my wife looks like someone who obviously is not a guest at a Residence Inn in Houston! My wife and I arrived at the Residence Inn Residence Inn Houston Northwest/Willowbrook  at 2am in the morning Saturday August 23 after what had been a very long and difficult day. Our check-in process was smooth and seamless; the young lady behind the desk was very friendly and professional.  This gave us no precursor as to what would lie ahead for us later that morning.At approximately 9:10am my wife and granddaughter went down to get some breakfast which is complimentary to guests.  When she arrive in the breakfast area she observed a different member of the hotel staff pleasantly greeting guests who were taking part of breakfast; none of whom looked like her. As my wife was sitting down at the table with our granddaughter the employee walked up to her and the only thing she said was “what is your name”?  My wife gave her first name. The staff member then said “what is your full name and room number”?  My wife provided her full name and room number. She was curious as to why she was being asked these questions given that she did not observe the staff member asking any other guest these questions as they arrived to partake of breakfast.Upon completion of their breakfast my wife approached the counter to speak with the staff member who was a young lady. The conversation went as follows:Wife: “Why did you ask me my name and room number?”Staff Member: “I was just asking”Wife:  “You greeted all the other people but only asked me my name &amp; room #. Did you find me in your system”?  Staff Member:  “Yes, you gave me the wrong room number, you are in room 213”  Wife:  “Why did you ask for my room # again?”Staff Member:  “I do not know you”Wife: “Why would you?. We checked in after 1am this morning.”Staff Member: “I had not seen you and I know every guest in the hotel.”  You didn’t look like someone who is supposed to be here. Wife: ”What?”Staff Member:  “You looked like someone who is not a guest” Wife: “So you know every guest in the hotel and I look like someone who is not a guest.” Staff Member: “Yes”Wife: “I need your name” The staff member said her first name. Wife: “I need you to write that down for me”She wrote her first name down which seemed to be Raquel, it was hard to read; along with my correct room number on a pink sticky and handed it to me. Wife:  “I do not need my room number I need your full name.”Staff Member: “That is private information.”Wife: “I need your full name”She disregarded the request and walked away from the reception desk as my wife was still standing there. My wife came upstairs and informed me of what had occurred.   Upon my wife recanting the events to me I went downstairs to talk to the young lady. When I arrived at the desk she was assisting another guest. I stood there patiently saying nothing for about ten minutes while she assisted the guest with check-out and a shuttle to the airport.When she had finished assisting the other guest, I asked her what time she came on shift. She said 7am. I then asked her, what time did she get off yesterday. She said 11. I asked her did she know what the word omnipotent means and if so was she.  She said that she knew what the word meant and that she was not.  I then said, unless you are omnipresent then you can’t tell someone that you know every guest in this hotel.  I asked her exactly what does someone who does not look like a guest at this hotel look like. She started telling me that homeless people have been coming in and trying to eat breakfast. I said to her, so now my wife looks like a homeless person? I asked to speak to a manager she said one was not on duty. I requested that she call one she said no. I said I need your full name. She refused to provide it. I told her that I was a Gold member. I asked her if she understood how Marriott expects its elite members to be treated. She said yes.I said you have an attitude problem; you owe my wife an apology. She said if you do not leave I am calling the police. I said go ahead I have not threaten you, I have not done anything. I stood there as she called the police. After she called them she grab the phone, left the desk area going around the corner completely out of sight and called a manager name Diana Diaz. As she is talking I yelled I want to talk to the manager, that’s not true multiple times as she was lying. She told the manager that I was causing a disturbance while other guests were at the desk, there was not only no one at the desk, and there was no one in the halls. When Officer Lin arrived he talked to her and then he talked to me and my wife. After talking to both of us he said "this is just a simple misunderstanding" and asked the staff member to apologize. She refused. Given that there was not anything that occurred worthy of even calling the police let alone arresting anyone, the officer was about to leave. As he was leaving the staff member said “she wants to talk to you” and handed Officer Lin the phone. I heard him say “why is that necessary? This was just a simple misunderstanding”. He listened for a few minutes and then said OK and handed the staff member the phone.He turned to us and said “I do not understand why they are doing this, but they want off their property”. I asked the staff member was I going to be charged for the day given that we did not arrive until about 2am. She said we would be. I told him in the presence of the staff member that neither of us had showered, so we would leave after doing so. My wife headed back upstairs.Officer Lin repeated again that he did not understand why they were insisting on this. He engaged me in a conversation about customer service and in this case the lack of it. He apologized to me saying he was sorry this was happening.  I went upstairs to take my shower and pack our things.About 10 minutes later while I was in the shower and my wife was getting dressed, my granddaughter says “someone is knocking on the door”.  I get out of the shower, throw something on and answer the door. It is Officer Lin and the Staff member.  The staff member is standing about two steps behind Officer Lin.  Officer Lin says “I’m sorry; they say they want you out right now”.  I said to the staff member, “why do you keep escalating this, we said we would leave after we took a shower”.  She just rolled her eyes at me and smirked. I told Officer Lin that as we indicated, we would leave after we both had showered and dressed.After we both were dressed and packed we proceeded downstairs to checkout. Seeing that Officer Lin was still there, I asked him to come up to the room to look at it so to confirm that we had not damaged the room in any way.  Officer Lin did as I requested. After that we checked out and left.I had contacted customer service while at the hotel, so I later received the following email from the Assistant Manager at the hotel Ms. Diaz:“Good evening Mr. Davis,I was saddened to hear about your recent stay at our property. Please accept my apologies on behalf of Residence Inn/ Willowbrook. You’re a valued customer ; everything we do is aimed at providing you with an excellent hotel experience. Please be assured that we are taking immediate corrective steps to avoid such problems in the future. Your feedback is extremely valuable and we truly appreciate you reaching out to us. If you would like to discuss your experience further, please feel free to contact me directly at the phone number listed below. Once again, please accept my apology. We would like to regain your trust and we hope you will allow us an opportunity to provide you with an exceptional guest experience when your travels bring you back to this area.Yours in Hospitality,Diana DiazAsst. General Manager/Willowbrook”I found this email insulting given that Ms. Diaz can’t be “saddened to hear about your recent stay at our property.”, when she was an active participant in what occurred. She decided to have me removed from the property when she had multiple opportunities to talk to me prior and refused.I called the General Manager Angie Hernandez. She insulted me further by telling me that even though Diana had sent an apology, she explicitly stated “I do not believe either of my staff did anything wrong”. I asked her had she talked to Officer Lin. She said no. I asked her if she had reviewed the video. She said they did not have the capability to do so.  I said, so you have decided that neither of your staff members did anything wrong without talking to the officer, reviewing video, or talking to me.  She also started telling me about people eating there that were not guests. I told her regardless of what is going on at the hotel you either question everyone or you question nobody, when you have a policy or procedure that leaves it up to staff to determine who to question based on whether THEY believe the person LOOKS like a guest, this is what happens. I told her about Raquel showing up at the door after she had previously been told we would leave after we showered.  Ms. Hernandez said that she did not know that Raquel knew that we had said we would leave after we showered when she showed up at the door 10 minutes later. She said that Raquel had indicated that she came to the room to tell us for the FIRST time that we had to leave.  She said that should not have happened. I told her that if she had talked to me or Officer Lin she would have known that. I said obviously neither one of them have been honest with you, do you really think either one of them would volunteer information that would get them in trouble? She said she would refund the hotel charge. I said if you really believe your staff did nothing wrong why would you do so?In summary:Neither the Assistant Manager; Ms. Diaz or her boss Ms. Hernandez did due diligence in investigating this matter.  Even in my conversation with Ms. Hernandez she never asked me what happened and allowed me to tell my side of the story from beginning to end. What she did say to me was that you did not believe that either of your staff did anything wrong. If that is the case why offer an empty apology. For clarification, I stood at the counter for at least 10 minutes while the young lady waited on another guest. I never said a word to her. The video will show this. Nobody charged down to the desk and began yelling and screaming at her. Raquel is the one who refused to allow me to talk to a manager while taking the phone around the corner completely out of sight to call one. The reason the assistant manager Ms. Diaz heard me yelling was that was the only way to communicate with someone who has removed herself completely from eyesight. The video will confirm that also. I never cursed at her and in fact did not even raise my voice until she walked away out of sight.It was the police officer who asked Raquel to apologize which she refused to do. It was the assistant manager; Ms. Diaz who insisted we must leave without ever talking to me and in spite of Officer Lin's objections.After we were told while in the lobby as witnessed by Officer Lin that we had to leave and indicated that we would do so after we took showers, it was the staff member Raquel who showed up at our room 10 minutes later with the police office trying to put us out while making faces and rolling her eyes.As the officer indicated this situation was a misunderstanding. Because of the rude and unprofessional behavior of all of the staff including management the situation was made worse. They are the ones who at every step chose to escalate the situation.  A review of the video will reveal there is no pointing of fingers, no cursing, flailing of arms or any other threatening moves being made by me. Why did the police even need to be called?Officer Lin should be commended for the professionalism and objectivity that he demonstrated.However, none of these facts mattered to any of the management at the hotel because as the General Manager Ms. Hernandez stated in our phone conversation, she had already decided without ever talking to me,  the officer, or reviewing video that her staff members did nothing wrong. No investigation, no objectivity. Does Ms. Hernandez really think either one of them would admit to something that would get them in trouble? If she does, then she is not a very wise manager.If you haven’t figured it out yet we are African American. Given that Ms. Hernandez does not believe that her staff did anything wrong, we can conclude that the policy of SELECTIVELY questioning guests will continue. So my question is the same one I asked her, what does someone who obviously is not a guess at this hotel look like?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r222414730-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222414730</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>My travel was for a house hunting trip with my 2yo son.  This was a very nice hotel, easy to find, wonderful staff and great breakfast.  I stayed in a 1bedroom and it was great!  The staff was great and went above and beyond.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>My travel was for a house hunting trip with my 2yo son.  This was a very nice hotel, easy to find, wonderful staff and great breakfast.  I stayed in a 1bedroom and it was great!  The staff was great and went above and beyond.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r218586043-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>218586043</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Terrible Service from Night Staff</t>
+  </si>
+  <si>
+    <t>I from China and come to Houston for work - I experience bad service around 11:20 P.M. - 11:35 P.M. after call 4 times and girls hang up on me, when I ask for towel be take to room. 2 girls from front desk refuse to bring me towel. Then I tell them I not from America and I got wrong room number - they say I not from America either. For me it not funny and they make me like joke. I will like to tell my fellow work mate to never stay after I receive terrible service. Not good hotel. Think twice before stay here. If you from other country like me be very careful at this hotel.我來自中國，來到休斯頓工作- 我經歷糟糕的服務圍繞下午十一點二十 - 一一三五年分通話後4次和女孩掛斷電話，當我要求的毛巾將採取到另一個房間。 2女孩從前台拒絕給我毛巾。然後，我告訴他們我不是來自美國，我錯了房號- 他們說我不能從美國無論是。對於我來說，這不好笑，他們把我當作笑話。我想告訴我的同胞的工作夥伴到永遠留在我收到糟糕的服務。沒有好的酒店。三思而後留在這兒。如果從其他國家像我這樣非常小心，在這家酒店。MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded December 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2014</t>
+  </si>
+  <si>
+    <t>I from China and come to Houston for work - I experience bad service around 11:20 P.M. - 11:35 P.M. after call 4 times and girls hang up on me, when I ask for towel be take to room. 2 girls from front desk refuse to bring me towel. Then I tell them I not from America and I got wrong room number - they say I not from America either. For me it not funny and they make me like joke. I will like to tell my fellow work mate to never stay after I receive terrible service. Not good hotel. Think twice before stay here. If you from other country like me be very careful at this hotel.我來自中國，來到休斯頓工作- 我經歷糟糕的服務圍繞下午十一點二十 - 一一三五年分通話後4次和女孩掛斷電話，當我要求的毛巾將採取到另一個房間。 2女孩從前台拒絕給我毛巾。然後，我告訴他們我不是來自美國，我錯了房號- 他們說我不能從美國無論是。對於我來說，這不好笑，他們把我當作笑話。我想告訴我的同胞的工作夥伴到永遠留在我收到糟糕的服務。沒有好的酒店。三思而後留在這兒。如果從其他國家像我這樣非常小心，在這家酒店。More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r211756417-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211756417</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Will Stay Again!</t>
+  </si>
+  <si>
+    <t>Our family of 5 stayed here while visiting family in the Houston area.  Every residence inn we've stayed in has been wonderful, and this one is no exception.  Very clean. Super nice staff on duty.  Felt safe.  Quiet.  No concerns or problems during our stay.  Will come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Our family of 5 stayed here while visiting family in the Houston area.  Every residence inn we've stayed in has been wonderful, and this one is no exception.  Very clean. Super nice staff on duty.  Felt safe.  Quiet.  No concerns or problems during our stay.  Will come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r210765882-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210765882</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Great Rooms</t>
+  </si>
+  <si>
+    <t>The hotel is perfectly located close to the highway and restaurants. Not to mention the rooms are the fantastic apartment style with; bedroom area, living area, office area, full kitchen, fireplace, and bathroom/closet. The fitness center could use a bit of work. Very few dumbells, a shaky bench, two treadmils and an elypitcal. More could be done to that, however the backetball goal outside and tennis court offer more exercise options. There is a small market place that was out of stock fairly often, however the breakfast area has food catered by a neighborhing Wings and Rings with free finger foods and snacks every night. Don't forget the free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>martha h, Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is perfectly located close to the highway and restaurants. Not to mention the rooms are the fantastic apartment style with; bedroom area, living area, office area, full kitchen, fireplace, and bathroom/closet. The fitness center could use a bit of work. Very few dumbells, a shaky bench, two treadmils and an elypitcal. More could be done to that, however the backetball goal outside and tennis court offer more exercise options. There is a small market place that was out of stock fairly often, however the breakfast area has food catered by a neighborhing Wings and Rings with free finger foods and snacks every night. Don't forget the free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r189632205-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189632205</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>A great location to stay at.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two days after our cruise finished.  We intentionally picked this hotel because it was close to both the Willowbrook Mall and the Premium Outlet Malls.  It also had a kitchen (range top, sink, fridge, etc.) so we could control our expenses a bit at the end of our vacation.We arrived at 11 AM after being up early and off the ship in Galveston.  We were not expecting our room to be ready but the suite was up and ready to go for us.  :)  As an added bonus the staff gave us 3 "welcome kits" with water, candy bars, and such.  It was a nice surprise.Overall the hotel was good.  The only reason I'm not giving it a 5 star review is for a couple of minor (but important) things.Cons: * The hotel is starting to show a bit of age.  There was peeling paint in the bathroom, etc.* There was a chicken bone on the floor of the pool area.  This leads me to believe that the cleaning is not "totally consistant" as the bone was there at 3PM.Pros:*Kitchen*Close to shopping &amp; Highways*Great suite sizes*Awesome artwork everywhere*Incredible staff!I'd stay at this location again if I find myself in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded January 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two days after our cruise finished.  We intentionally picked this hotel because it was close to both the Willowbrook Mall and the Premium Outlet Malls.  It also had a kitchen (range top, sink, fridge, etc.) so we could control our expenses a bit at the end of our vacation.We arrived at 11 AM after being up early and off the ship in Galveston.  We were not expecting our room to be ready but the suite was up and ready to go for us.  :)  As an added bonus the staff gave us 3 "welcome kits" with water, candy bars, and such.  It was a nice surprise.Overall the hotel was good.  The only reason I'm not giving it a 5 star review is for a couple of minor (but important) things.Cons: * The hotel is starting to show a bit of age.  There was peeling paint in the bathroom, etc.* There was a chicken bone on the floor of the pool area.  This leads me to believe that the cleaning is not "totally consistant" as the bone was there at 3PM.Pros:*Kitchen*Close to shopping &amp; Highways*Great suite sizes*Awesome artwork everywhere*Incredible staff!I'd stay at this location again if I find myself in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r187584291-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187584291</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Consistently excellent!</t>
+  </si>
+  <si>
+    <t>Have stayed here several times over the last year. The staff is very friendly and generally goes out of their way to make your stay pleasant. Well laid-out breakfast area, usually hot and cold choices available. Rooms towards the back of the property are slightly more quiet. Suites are excellently equipped, and beds very comfortable. There is enough parking available, with overflow lot. Over the last months there has been some repair work on Greens Road in progress, however hotel is open and can be accessed. Houston can get booked out on certain event days, so it is advisable to reserve well in advance. Yes, will come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Have stayed here several times over the last year. The staff is very friendly and generally goes out of their way to make your stay pleasant. Well laid-out breakfast area, usually hot and cold choices available. Rooms towards the back of the property are slightly more quiet. Suites are excellently equipped, and beds very comfortable. There is enough parking available, with overflow lot. Over the last months there has been some repair work on Greens Road in progress, however hotel is open and can be accessed. Houston can get booked out on certain event days, so it is advisable to reserve well in advance. Yes, will come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r182828730-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182828730</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Love, Love, Love this place and the staff are friendly and amazing.</t>
+  </si>
+  <si>
+    <t>we had a leak in our roof at home here in Houston. The construction made the house UNlivable for my family,and initially we went to a different hotel chain and weren't disappointed but weren't impressed either. That was basically just to Rooms To Go To Sleep in. we were only expecting the house to be under construction for about a week and our insurance adjuster said that's up at the Residence Inn Willowbrook. Construction being what it is, of course it did not get finished within the week we were allotted which left us in a sticky situation. Since I do have children that go to school in the district it was going to be a problem for us to move to another hotel with availability that was close to the airport, which was not close to us. We spoke with staff who are all so sweet and understanding, we wanted to see if there was anything we could do to help us stay at this hotel. Unfortunately all the rooms are reserved and there was high volume here. Martha and the otherstaff worked  some kind of magic for us and arranged for us too stay in a bigger nicer room rather than are two separate rooms which worked out better for our families needs. They did not have to do that,and the fact that they did help me and my family stay comfortable is why I will give them...we had a leak in our roof at home here in Houston. The construction made the house UNlivable for my family,and initially we went to a different hotel chain and weren't disappointed but weren't impressed either. That was basically just to Rooms To Go To Sleep in. we were only expecting the house to be under construction for about a week and our insurance adjuster said that's up at the Residence Inn Willowbrook. Construction being what it is, of course it did not get finished within the week we were allotted which left us in a sticky situation. Since I do have children that go to school in the district it was going to be a problem for us to move to another hotel with availability that was close to the airport, which was not close to us. We spoke with staff who are all so sweet and understanding, we wanted to see if there was anything we could do to help us stay at this hotel. Unfortunately all the rooms are reserved and there was high volume here. Martha and the otherstaff worked  some kind of magic for us and arranged for us too stay in a bigger nicer room rather than are two separate rooms which worked out better for our families needs. They did not have to do that,and the fact that they did help me and my family stay comfortable is why I will give them 5 stars. Highly recommend this place and I will tell anybody that I know that if they're going out of town or even staying in town that the Residence Inn by Marriott is the place to go. Thanks again and you'll be seeing me and my family again.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded November 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2013</t>
+  </si>
+  <si>
+    <t>we had a leak in our roof at home here in Houston. The construction made the house UNlivable for my family,and initially we went to a different hotel chain and weren't disappointed but weren't impressed either. That was basically just to Rooms To Go To Sleep in. we were only expecting the house to be under construction for about a week and our insurance adjuster said that's up at the Residence Inn Willowbrook. Construction being what it is, of course it did not get finished within the week we were allotted which left us in a sticky situation. Since I do have children that go to school in the district it was going to be a problem for us to move to another hotel with availability that was close to the airport, which was not close to us. We spoke with staff who are all so sweet and understanding, we wanted to see if there was anything we could do to help us stay at this hotel. Unfortunately all the rooms are reserved and there was high volume here. Martha and the otherstaff worked  some kind of magic for us and arranged for us too stay in a bigger nicer room rather than are two separate rooms which worked out better for our families needs. They did not have to do that,and the fact that they did help me and my family stay comfortable is why I will give them...we had a leak in our roof at home here in Houston. The construction made the house UNlivable for my family,and initially we went to a different hotel chain and weren't disappointed but weren't impressed either. That was basically just to Rooms To Go To Sleep in. we were only expecting the house to be under construction for about a week and our insurance adjuster said that's up at the Residence Inn Willowbrook. Construction being what it is, of course it did not get finished within the week we were allotted which left us in a sticky situation. Since I do have children that go to school in the district it was going to be a problem for us to move to another hotel with availability that was close to the airport, which was not close to us. We spoke with staff who are all so sweet and understanding, we wanted to see if there was anything we could do to help us stay at this hotel. Unfortunately all the rooms are reserved and there was high volume here. Martha and the otherstaff worked  some kind of magic for us and arranged for us too stay in a bigger nicer room rather than are two separate rooms which worked out better for our families needs. They did not have to do that,and the fact that they did help me and my family stay comfortable is why I will give them 5 stars. Highly recommend this place and I will tell anybody that I know that if they're going out of town or even staying in town that the Residence Inn by Marriott is the place to go. Thanks again and you'll be seeing me and my family again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r172343941-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172343941</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn Marriott in Willowbrook for 2 weeks straight and didn't know how I would feel being away from my family for so long, but the front desk staff made me feel right at home. The morning staff, afternoon staff, and the over night staff were awesome and made me feel welcome from the minute I walked in the door. Martha, Angie, Justine, Gina, and Brett are an ASSET to the hotel and if I could I would hire them all! I will most definitely recommend this hotel to all my peers! Thank you Willowbrook Residence Inn for providing such a memorable and great experience for me! MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn Marriott in Willowbrook for 2 weeks straight and didn't know how I would feel being away from my family for so long, but the front desk staff made me feel right at home. The morning staff, afternoon staff, and the over night staff were awesome and made me feel welcome from the minute I walked in the door. Martha, Angie, Justine, Gina, and Brett are an ASSET to the hotel and if I could I would hire them all! I will most definitely recommend this hotel to all my peers! Thank you Willowbrook Residence Inn for providing such a memorable and great experience for me! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r172302250-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172302250</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Great hotel and staff</t>
+  </si>
+  <si>
+    <t>Moving to Houston and have 2 months in a hotel.  I started in another for 2 nights, then moved to the Residence Inn - I plan to stay here for the rest of the 2 months.Location is good - right across the street from a mall, and walking distance (1/2 mile) from several restaurants and bars.Staff is very nice and accommodating - they make you feel like they genuinely want to make you happy, and it works! Thanks to Gina and everyone else for making my stay enjoyable!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Moving to Houston and have 2 months in a hotel.  I started in another for 2 nights, then moved to the Residence Inn - I plan to stay here for the rest of the 2 months.Location is good - right across the street from a mall, and walking distance (1/2 mile) from several restaurants and bars.Staff is very nice and accommodating - they make you feel like they genuinely want to make you happy, and it works! Thanks to Gina and everyone else for making my stay enjoyable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r171889323-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171889323</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel Poor Service</t>
+  </si>
+  <si>
+    <t>Honestly the hotel it self was pretty good, but the service on the other hand was terrible. Any request that was made was scoffed at and was treated as an inconvenience and a waste of their time. I was truly shocked that such a nice hotel had such a rude front desk staff morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Honestly the hotel it self was pretty good, but the service on the other hand was terrible. Any request that was made was scoffed at and was treated as an inconvenience and a waste of their time. I was truly shocked that such a nice hotel had such a rude front desk staff morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r158246150-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158246150</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Terrific Accommodations</t>
+  </si>
+  <si>
+    <t>I was detailed to Houston for 90 days for a work related detail.  I stayed at this hotel and was made to feel like I was at home.  The staff were all polite and courteous.  They knew my name and always greeted me in a welcoming manner.  It was always refreshing to come back from a day at work and chat with the staff.  The food was always good and the coffee was always hot.  The rooms were clean and well maintained.  I would highly recommend this hotel for any stay, long term or short.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>I was detailed to Houston for 90 days for a work related detail.  I stayed at this hotel and was made to feel like I was at home.  The staff were all polite and courteous.  They knew my name and always greeted me in a welcoming manner.  It was always refreshing to come back from a day at work and chat with the staff.  The food was always good and the coffee was always hot.  The rooms were clean and well maintained.  I would highly recommend this hotel for any stay, long term or short.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r157262319-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157262319</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise to actually be treated  as a welcome guest from the moment of check in to check out.  The reception staff were outstanding and made every effort to make my short stay pleasant.  Location was great, mall, food, full gym.. I will be going back.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a pleasant surprise to actually be treated  as a welcome guest from the moment of check in to check out.  The reception staff were outstanding and made every effort to make my short stay pleasant.  Location was great, mall, food, full gym.. I will be going back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r155842405-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155842405</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>Amazing Staff</t>
+  </si>
+  <si>
+    <t>My family had a flood in our home. Our insurance company placed us in the Residence Inn Willowbrook when we first arrived we were amazed at the greeting, we received homemaide cookies from a staff member as soon as we arrived. Our room was amazing clean and beautiful 2 bedroom 2 bathroom with a livingroom and a full kitchen. It was as good as home. Our home was under construction for more than 2 months and during this time my children became very close to Gina a staff member, Justine ( I believe that is how you spell it ) a member of managment and Martha the manager. The cleaning staff was just amazing anything I needed they took care of. We grew to love everyone and they all made our stay very wonderful. I wish every hotel was this amazing. I wish there was a way to repay the staff for making our 2 months of horror just a little amazing. Thank you Residence Inn for all your hard work. I must add now that we are back home I miss the smiling faces every morning and afternoon, and I really miss not having to cook or clean everyday.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>My family had a flood in our home. Our insurance company placed us in the Residence Inn Willowbrook when we first arrived we were amazed at the greeting, we received homemaide cookies from a staff member as soon as we arrived. Our room was amazing clean and beautiful 2 bedroom 2 bathroom with a livingroom and a full kitchen. It was as good as home. Our home was under construction for more than 2 months and during this time my children became very close to Gina a staff member, Justine ( I believe that is how you spell it ) a member of managment and Martha the manager. The cleaning staff was just amazing anything I needed they took care of. We grew to love everyone and they all made our stay very wonderful. I wish every hotel was this amazing. I wish there was a way to repay the staff for making our 2 months of horror just a little amazing. Thank you Residence Inn for all your hard work. I must add now that we are back home I miss the smiling faces every morning and afternoon, and I really miss not having to cook or clean everyday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r151130084-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151130084</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>Fantastic service and hotel</t>
+  </si>
+  <si>
+    <t>I stayed here with my mum and two kids on a Houston shopping trip. The front desk staff were wonderfully friendly and helpful and we felt welcome from the moment we walked in. Great location for shopping and not far from premium outlets. We will definitely be back. Thank you. MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here with my mum and two kids on a Houston shopping trip. The front desk staff were wonderfully friendly and helpful and we felt welcome from the moment we walked in. Great location for shopping and not far from premium outlets. We will definitely be back. Thank you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r149740731-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149740731</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Simply Perfect</t>
+  </si>
+  <si>
+    <t>Again visiting the Houston area from Berlin, Germany and returned to the Residesce Inn now for the fourth time.Again this is simply the perfect place to stay especially as a longstay and with kids.A very well run place by Martha the Manager, supported by her very friendly, helpfull and at all times guest-orientated reception staff Marisia, Julie, Brandon and all the others.Thanks for giving us such a wonderfull time and taking care of our kids. They loved it.This place has simply evrything you expect from a long stay place,.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Again visiting the Houston area from Berlin, Germany and returned to the Residesce Inn now for the fourth time.Again this is simply the perfect place to stay especially as a longstay and with kids.A very well run place by Martha the Manager, supported by her very friendly, helpfull and at all times guest-orientated reception staff Marisia, Julie, Brandon and all the others.Thanks for giving us such a wonderfull time and taking care of our kids. They loved it.This place has simply evrything you expect from a long stay place,.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r147800293-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147800293</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>I stay in a lot of Marriott hotels at varying price points... and the desk clerk when I checked in was the friendliest, most engaged desk clerk I've come across in a long time. It wasn't that I was particularly important - she seemed to remember everyone's name and a little bit about them and talked to them as they came and went while I checked in and I really appreciated it. The rooms are great, too. They've been updated recently and everything was in working order. My suite was spacious and the bed was comfortable. Breakfast is the standard eggs, sausage, french toast, and waffles you find at any Residence Inn - not the greatest but not bad either. If your travels take you to this corner of Houston suburbia, stay here. The hotel is great and the mall is convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay in a lot of Marriott hotels at varying price points... and the desk clerk when I checked in was the friendliest, most engaged desk clerk I've come across in a long time. It wasn't that I was particularly important - she seemed to remember everyone's name and a little bit about them and talked to them as they came and went while I checked in and I really appreciated it. The rooms are great, too. They've been updated recently and everything was in working order. My suite was spacious and the bed was comfortable. Breakfast is the standard eggs, sausage, french toast, and waffles you find at any Residence Inn - not the greatest but not bad either. If your travels take you to this corner of Houston suburbia, stay here. The hotel is great and the mall is convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r143224026-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143224026</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Helpful front desk</t>
+  </si>
+  <si>
+    <t>Had a problem with Rm 119.  Mechanical room next door.  when the A/C went off the walls vibrated and it sounded as if a jet engine was in the room.  Next morning asked front desk staff for different room. Reply, we're fully booked.  Asked again at 9 am, same answer.  That afternoon spoke with young lady who had only been there since August. Took care of the problem in about 5 minutes.  Morning person needs some customer service training.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2013</t>
+  </si>
+  <si>
+    <t>Had a problem with Rm 119.  Mechanical room next door.  when the A/C went off the walls vibrated and it sounded as if a jet engine was in the room.  Next morning asked front desk staff for different room. Reply, we're fully booked.  Asked again at 9 am, same answer.  That afternoon spoke with young lady who had only been there since August. Took care of the problem in about 5 minutes.  Morning person needs some customer service training.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r140454680-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140454680</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>We were in visiting some friends and stayed at the Willowbrook Residence Inn.  We picked the Residence Inn for its price and I think we got our moneis worth.  The room was very clean,  The bed and the sofa bed were comfortable.  The Staff was very friendly and helpful!  When I needed a few extra towels and a protable crib, they were brought to my room quickly.  And, the morning breakfast was very good.  We will be staying there again next time we are in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We were in visiting some friends and stayed at the Willowbrook Residence Inn.  We picked the Residence Inn for its price and I think we got our moneis worth.  The room was very clean,  The bed and the sofa bed were comfortable.  The Staff was very friendly and helpful!  When I needed a few extra towels and a protable crib, they were brought to my room quickly.  And, the morning breakfast was very good.  We will be staying there again next time we are in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r139154595-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139154595</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>Fantastic week stay</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Residence Inn for a week in late August of 2012 for a training class that I attended in North Houston.  I brought my family with me so they could visit museums while I was in class.  The queen bed suite had plenty of room and the full size refrigerator helped us buy enough food to last the week. Also there is an outdoor gas grill that is huge.  We cooked steaks, chicken, and hamburgers on two separate days.  The pool was average size and clean.  On Mondays thru Wednesday there is a evening meal provided by the hotel.  My only complaint would be the basketball court that is not gated and therefore know key card is needed.  On Sunday evening there were about 4 hooligans playing ball that were obviously not guests of the hotel.  How about just removing the basketball goal?  The hotel is located next to a good size mall.   Since I was traveling on government business my rate was lower than what most people would pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Residence Inn for a week in late August of 2012 for a training class that I attended in North Houston.  I brought my family with me so they could visit museums while I was in class.  The queen bed suite had plenty of room and the full size refrigerator helped us buy enough food to last the week. Also there is an outdoor gas grill that is huge.  We cooked steaks, chicken, and hamburgers on two separate days.  The pool was average size and clean.  On Mondays thru Wednesday there is a evening meal provided by the hotel.  My only complaint would be the basketball court that is not gated and therefore know key card is needed.  On Sunday evening there were about 4 hooligans playing ball that were obviously not guests of the hotel.  How about just removing the basketball goal?  The hotel is located next to a good size mall.   Since I was traveling on government business my rate was lower than what most people would pay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r136898251-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136898251</t>
+  </si>
+  <si>
+    <t>08/11/2012</t>
+  </si>
+  <si>
+    <t>Residence Inn Willowbrook</t>
+  </si>
+  <si>
+    <t>The Residence Inn was very comfortable, in a convenient location for my business, and had everything I would want for either a business or personal stay.  The staff was outstandingly friendly and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r132896066-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132896066</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>Great stay with all the perks....</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this fine hotel.  It has all the right mix of things for the traveler including friendly staff, great accommodations, free parking, free internet, free and good breakfast, more the adequate rooms with full kitchens, etc.  We went as a family and got a two bedroom suite which came in handy and really was much appreciated.  From the time we got there to the time we left, it was a great trip!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r132856078-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132856078</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>Excellent location, excellent staff, excellent ammenities</t>
+  </si>
+  <si>
+    <t>We needed a place near the northwest side of the city for a medical conference at a hospital and wanted to make a family weekend trip out of it. The beds were a bit firm for my preference, but that truly is my only negative comment and it really is a personal preference. The pool and pool area were excellent...the kids loved the indoor pool.We spend hours in there!  And dried off outside by the fireplace on the patio. We love having a full kitchen even though we did not use it to the fullest potential, but having the cabinet space is GREAT with a family!  Breakfast buffet is amazing!  Never had so many choices for breakfast and the Texas shaped waffles were a hoot for the kids!  The hot items changed each morning we were there, so plenty of options.  The locaion is amazing being so close to the mall, shopping, restaurants, entertainment and the area felt secure. The staff was super friendly, very accomodating no matter the circumstances or request.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We needed a place near the northwest side of the city for a medical conference at a hospital and wanted to make a family weekend trip out of it. The beds were a bit firm for my preference, but that truly is my only negative comment and it really is a personal preference. The pool and pool area were excellent...the kids loved the indoor pool.We spend hours in there!  And dried off outside by the fireplace on the patio. We love having a full kitchen even though we did not use it to the fullest potential, but having the cabinet space is GREAT with a family!  Breakfast buffet is amazing!  Never had so many choices for breakfast and the Texas shaped waffles were a hoot for the kids!  The hot items changed each morning we were there, so plenty of options.  The locaion is amazing being so close to the mall, shopping, restaurants, entertainment and the area felt secure. The staff was super friendly, very accomodating no matter the circumstances or request.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r119992908-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119992908</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Property in need of Renovation</t>
+  </si>
+  <si>
+    <t>We stayed here while traveling to Houston for my 30 year High School reunion.  
+Unfortunately, the hotel ended up being a little below what I've come to expect from Residence Inn.  The people and staff were very friendly and helpful but the faciltiy is in need of a renovation.  We had to switch rooms right away due to the toilet running and constantly refilling every three minutes.  They switched us to the room next door which made the switch easy but still, the toilet was constantly running.  Since it did not make the refilling noise we keep the room.  
+The furniture in the room seemed like it had been there since the 60's.  Everything was very low to the ground.  The bed was very hard and low to the ground.  Many of the Marriott's I have stayed at have new upgrading bedding.  This is not one of those hotel's.  The AC unit is next to the bedroom window and was very noisy.  Everything else about the room was pretty standard Residence Inn.
+The highlight of the facility was the indoor pool and whirlpool.  Didn't seem to get a lot of use but my wife and I enjoyed it.
+We did partake of the breakfast which once again was a little below average for a Residence Inn.  If I had to guess, I would say that the scrambled eggs were powdered.   Not that I am a big fan, but the highlight...We stayed here while traveling to Houston for my 30 year High School reunion.  Unfortunately, the hotel ended up being a little below what I've come to expect from Residence Inn.  The people and staff were very friendly and helpful but the faciltiy is in need of a renovation.  We had to switch rooms right away due to the toilet running and constantly refilling every three minutes.  They switched us to the room next door which made the switch easy but still, the toilet was constantly running.  Since it did not make the refilling noise we keep the room.  The furniture in the room seemed like it had been there since the 60's.  Everything was very low to the ground.  The bed was very hard and low to the ground.  Many of the Marriott's I have stayed at have new upgrading bedding.  This is not one of those hotel's.  The AC unit is next to the bedroom window and was very noisy.  Everything else about the room was pretty standard Residence Inn.The highlight of the facility was the indoor pool and whirlpool.  Didn't seem to get a lot of use but my wife and I enjoyed it.We did partake of the breakfast which once again was a little below average for a Residence Inn.  If I had to guess, I would say that the scrambled eggs were powdered.   Not that I am a big fan, but the highlight of the food was the sausage patties. Overall, I would look for another hotel if I am ever in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>We stayed here while traveling to Houston for my 30 year High School reunion.  
+Unfortunately, the hotel ended up being a little below what I've come to expect from Residence Inn.  The people and staff were very friendly and helpful but the faciltiy is in need of a renovation.  We had to switch rooms right away due to the toilet running and constantly refilling every three minutes.  They switched us to the room next door which made the switch easy but still, the toilet was constantly running.  Since it did not make the refilling noise we keep the room.  
+The furniture in the room seemed like it had been there since the 60's.  Everything was very low to the ground.  The bed was very hard and low to the ground.  Many of the Marriott's I have stayed at have new upgrading bedding.  This is not one of those hotel's.  The AC unit is next to the bedroom window and was very noisy.  Everything else about the room was pretty standard Residence Inn.
+The highlight of the facility was the indoor pool and whirlpool.  Didn't seem to get a lot of use but my wife and I enjoyed it.
+We did partake of the breakfast which once again was a little below average for a Residence Inn.  If I had to guess, I would say that the scrambled eggs were powdered.   Not that I am a big fan, but the highlight...We stayed here while traveling to Houston for my 30 year High School reunion.  Unfortunately, the hotel ended up being a little below what I've come to expect from Residence Inn.  The people and staff were very friendly and helpful but the faciltiy is in need of a renovation.  We had to switch rooms right away due to the toilet running and constantly refilling every three minutes.  They switched us to the room next door which made the switch easy but still, the toilet was constantly running.  Since it did not make the refilling noise we keep the room.  The furniture in the room seemed like it had been there since the 60's.  Everything was very low to the ground.  The bed was very hard and low to the ground.  Many of the Marriott's I have stayed at have new upgrading bedding.  This is not one of those hotel's.  The AC unit is next to the bedroom window and was very noisy.  Everything else about the room was pretty standard Residence Inn.The highlight of the facility was the indoor pool and whirlpool.  Didn't seem to get a lot of use but my wife and I enjoyed it.We did partake of the breakfast which once again was a little below average for a Residence Inn.  If I had to guess, I would say that the scrambled eggs were powdered.   Not that I am a big fan, but the highlight of the food was the sausage patties. Overall, I would look for another hotel if I am ever in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r119193183-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119193183</t>
+  </si>
+  <si>
+    <t>10/11/2011</t>
+  </si>
+  <si>
+    <t>amazing all staff</t>
+  </si>
+  <si>
+    <t>all staff from which cleans up the manager are very caring and dedicated people have more than a month and we felt at home people are cooking with my daughter ....... love ema all have been very special baby have no problem with 100000 %%%%% recommended a special greeting to Maria in the kitchen is so very good service</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r117030151-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117030151</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>Everything was perfect.</t>
+  </si>
+  <si>
+    <t>Would suggest this hotel to anyone. Service was great, breakfast was great. Staff was very friendly and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>willowbrookri, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded August 22, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2011</t>
+  </si>
+  <si>
+    <t>Would suggest this hotel to anyone. Service was great, breakfast was great. Staff was very friendly and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r114091960-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114091960</t>
+  </si>
+  <si>
+    <t>06/17/2011</t>
+  </si>
+  <si>
+    <t>Not Bad/Not Good...</t>
+  </si>
+  <si>
+    <t>My family and I usually stay in Marriott hotels,we are rewards members,but this one I would probably skip next time.The dust ruffle was ripped,the privacy curtain had old food stains stuck to it,one of the pillows had a dark brown stain on it(I bring my own pillowcases though),and the room had an old smell to it. There were also a few beetles in the bathroom area.I blame some of this on the climate ,in general it is hot,muggy and buggy in Houston.Overall the hotel was OK generally clean minus statements above and the staff was courteous as well.The room served its purpose,but I will choose somewhere else next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>willowbrookri, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded July 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2011</t>
+  </si>
+  <si>
+    <t>My family and I usually stay in Marriott hotels,we are rewards members,but this one I would probably skip next time.The dust ruffle was ripped,the privacy curtain had old food stains stuck to it,one of the pillows had a dark brown stain on it(I bring my own pillowcases though),and the room had an old smell to it. There were also a few beetles in the bathroom area.I blame some of this on the climate ,in general it is hot,muggy and buggy in Houston.Overall the hotel was OK generally clean minus statements above and the staff was courteous as well.The room served its purpose,but I will choose somewhere else next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r99666835-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>99666835</t>
+  </si>
+  <si>
+    <t>03/10/2011</t>
+  </si>
+  <si>
+    <t>Awesome place to stay</t>
+  </si>
+  <si>
+    <t>I have been travelling to US from September and I am making sure that every stay is in Residence Inn. The way they treat their guests and the hospitality shown is priceless. Manager Martha and her colleagues are well trained on treating guests. I will be travelling again in May and I will come back to Residence Inn for my next stay too.Cleanliness and the service provided to guests are really great. There is a lot of care taken by Martha's team to keep their guests happy and they are available 24X7 for any difficulties we face. Rather I should word it saying they treat theirs guests as friends and help them.I would recommend this hotel for its hospitality and amount of service provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>willowbrookri, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded May 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2011</t>
+  </si>
+  <si>
+    <t>I have been travelling to US from September and I am making sure that every stay is in Residence Inn. The way they treat their guests and the hospitality shown is priceless. Manager Martha and her colleagues are well trained on treating guests. I will be travelling again in May and I will come back to Residence Inn for my next stay too.Cleanliness and the service provided to guests are really great. There is a lot of care taken by Martha's team to keep their guests happy and they are available 24X7 for any difficulties we face. Rather I should word it saying they treat theirs guests as friends and help them.I would recommend this hotel for its hospitality and amount of service provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r94524315-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>94524315</t>
+  </si>
+  <si>
+    <t>01/26/2011</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>The staff is very friendly and greeted everyone with a smile. The rooms were very clean and the layout was awesome.  The pool, exercise room and laundry facilities were all working and in great condition. One of the perks of this Hotel is the daily breakfast, and dinner is served 3 days a week. I will stay at this Hotel next time i visit this side of houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>The staff is very friendly and greeted everyone with a smile. The rooms were very clean and the layout was awesome.  The pool, exercise room and laundry facilities were all working and in great condition. One of the perks of this Hotel is the daily breakfast, and dinner is served 3 days a week. I will stay at this Hotel next time i visit this side of houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r86957090-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>86957090</t>
+  </si>
+  <si>
+    <t>11/13/2010</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Everything was quite ok</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r86541315-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>86541315</t>
+  </si>
+  <si>
+    <t>11/09/2010</t>
+  </si>
+  <si>
+    <t>It feels like home.</t>
+  </si>
+  <si>
+    <t>I am on the road for 21 days out of a month.  This hotel makes me feel very comfortable.  The staff are very friendly.  Whenever I leave and return, they always make me feel welcome.  I always enjoy coming back.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r84096935-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>84096935</t>
+  </si>
+  <si>
+    <t>10/19/2010</t>
+  </si>
+  <si>
+    <t>Awesome place with even better staff!</t>
+  </si>
+  <si>
+    <t>I spent several months here and they made me feel right at home. I had several needs specific to my business in Houston and the staff at the Willowbrook Residence Inn did everything they could to accomodate me. The waffles at breakfast are the best I've ever eaten. The evening socials are a great way to know your neighbors and not feel so much like you are on the road. The General Manager is very approachable and quick to address any issues that may arise. If I have to be in a hotel, this is where I want to be!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r51862362-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>51862362</t>
+  </si>
+  <si>
+    <t>12/25/2009</t>
+  </si>
+  <si>
+    <t>nice family hotel</t>
+  </si>
+  <si>
+    <t>we stayed here in late November, as a family of 5. After searching for 2 bedroom hotels to stay in Houston, and advice from Tripadvisor, we selected this hotel. Firstly, it is one the other side of the city from Hobby Airport, NASA centre. It is a Residence Inn chain, as usual very comfortable for our family. We took advice from previous reviews here, and were very happy. It has the usual facilities for a Residence Inn, including free Internet and breakfast. It does have a lovely INDOOR heated swimming pool, across the road is the Willowbrook Shopping Mall, and nextdoor is a minigolf/gokart fun park.We were lucky to get a good rate here and there are plenty of eating places in the vicinity.Front of desk staff were ok. Not overflowing with information concerning local shopping areas or eateries. It is located near an offramp from the freeway, but far enough not to hear road noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>we stayed here in late November, as a family of 5. After searching for 2 bedroom hotels to stay in Houston, and advice from Tripadvisor, we selected this hotel. Firstly, it is one the other side of the city from Hobby Airport, NASA centre. It is a Residence Inn chain, as usual very comfortable for our family. We took advice from previous reviews here, and were very happy. It has the usual facilities for a Residence Inn, including free Internet and breakfast. It does have a lovely INDOOR heated swimming pool, across the road is the Willowbrook Shopping Mall, and nextdoor is a minigolf/gokart fun park.We were lucky to get a good rate here and there are plenty of eating places in the vicinity.Front of desk staff were ok. Not overflowing with information concerning local shopping areas or eateries. It is located near an offramp from the freeway, but far enough not to hear road noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r49457296-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>49457296</t>
+  </si>
+  <si>
+    <t>11/17/2009</t>
+  </si>
+  <si>
+    <t>Perfect for any trip</t>
+  </si>
+  <si>
+    <t>This hotel was so accomodating! Everyone of the staff members were helpful and made sure I was taken care of.  I really liked the new renovation, it gave the hotel a whole new look. When in the area again I will definately stay here!</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r47413390-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>47413390</t>
+  </si>
+  <si>
+    <t>10/21/2009</t>
+  </si>
+  <si>
+    <t>Wonderful Accomodations with Great Breakfast!</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Residence Inn at Willowbrook.  We would definitely stay here again!
+The two-bedroom suite was perfect for a trip with extended family for a four-day weekend.  We could not have had better accomodations.  The suite included a living room/kitchen which was attractive, clean, and comfortable.  Each bedroom had a comfortable queen-size bed and its own bath.  The bathrooms had separate bathing and vanity areas.  Everything was clean and neat with a feeling of being new.  The suite included a TV (not flat screen, but good) in each bedroom as well as the living room which was nice for spending downtime at the hotel.
+Breakfast was a tasty feast every morning!  The daily offerings were eggs, sausage, oatmeal, waffles, toppings (pecans, raisins, brown sugar, whipped cream, cheese), yogurt, fresh fruit, cut fruit, biscuits, breads, doughnuts, cereal, milk, juices, coffee, and tea.  Some days included items such as pancakes and gravy.  The breakfast staff were efficient, clean, cheerful, and helpful.
+Guests use areas of the hotel were very good.  The fitness room was clean and adequate with flat screen TVs to watch during your workout.  The pool looked clean, but I never used it.  The lobby was spacious and comfortable with a great picture on a large flat-screen TV.  The business area consisted of 2 PCs in part of the lobby; the connection was fast and the screen resolution sharp.  Guests with wireless laptops were able to...We enjoyed our stay at the Residence Inn at Willowbrook.  We would definitely stay here again!The two-bedroom suite was perfect for a trip with extended family for a four-day weekend.  We could not have had better accomodations.  The suite included a living room/kitchen which was attractive, clean, and comfortable.  Each bedroom had a comfortable queen-size bed and its own bath.  The bathrooms had separate bathing and vanity areas.  Everything was clean and neat with a feeling of being new.  The suite included a TV (not flat screen, but good) in each bedroom as well as the living room which was nice for spending downtime at the hotel.Breakfast was a tasty feast every morning!  The daily offerings were eggs, sausage, oatmeal, waffles, toppings (pecans, raisins, brown sugar, whipped cream, cheese), yogurt, fresh fruit, cut fruit, biscuits, breads, doughnuts, cereal, milk, juices, coffee, and tea.  Some days included items such as pancakes and gravy.  The breakfast staff were efficient, clean, cheerful, and helpful.Guests use areas of the hotel were very good.  The fitness room was clean and adequate with flat screen TVs to watch during your workout.  The pool looked clean, but I never used it.  The lobby was spacious and comfortable with a great picture on a large flat-screen TV.  The business area consisted of 2 PCs in part of the lobby; the connection was fast and the screen resolution sharp.  Guests with wireless laptops were able to work from the breakfast area and lobby.Everyone working at the hotel from front desk, to housekeeping, to maintenance worked hard to make the guests feel welcome and comfortable.  We were extremely satisfied with this choice for our stay in northwest Houston.  The weekend discount made the hotel affordable for our visit with family.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the Residence Inn at Willowbrook.  We would definitely stay here again!
+The two-bedroom suite was perfect for a trip with extended family for a four-day weekend.  We could not have had better accomodations.  The suite included a living room/kitchen which was attractive, clean, and comfortable.  Each bedroom had a comfortable queen-size bed and its own bath.  The bathrooms had separate bathing and vanity areas.  Everything was clean and neat with a feeling of being new.  The suite included a TV (not flat screen, but good) in each bedroom as well as the living room which was nice for spending downtime at the hotel.
+Breakfast was a tasty feast every morning!  The daily offerings were eggs, sausage, oatmeal, waffles, toppings (pecans, raisins, brown sugar, whipped cream, cheese), yogurt, fresh fruit, cut fruit, biscuits, breads, doughnuts, cereal, milk, juices, coffee, and tea.  Some days included items such as pancakes and gravy.  The breakfast staff were efficient, clean, cheerful, and helpful.
+Guests use areas of the hotel were very good.  The fitness room was clean and adequate with flat screen TVs to watch during your workout.  The pool looked clean, but I never used it.  The lobby was spacious and comfortable with a great picture on a large flat-screen TV.  The business area consisted of 2 PCs in part of the lobby; the connection was fast and the screen resolution sharp.  Guests with wireless laptops were able to...We enjoyed our stay at the Residence Inn at Willowbrook.  We would definitely stay here again!The two-bedroom suite was perfect for a trip with extended family for a four-day weekend.  We could not have had better accomodations.  The suite included a living room/kitchen which was attractive, clean, and comfortable.  Each bedroom had a comfortable queen-size bed and its own bath.  The bathrooms had separate bathing and vanity areas.  Everything was clean and neat with a feeling of being new.  The suite included a TV (not flat screen, but good) in each bedroom as well as the living room which was nice for spending downtime at the hotel.Breakfast was a tasty feast every morning!  The daily offerings were eggs, sausage, oatmeal, waffles, toppings (pecans, raisins, brown sugar, whipped cream, cheese), yogurt, fresh fruit, cut fruit, biscuits, breads, doughnuts, cereal, milk, juices, coffee, and tea.  Some days included items such as pancakes and gravy.  The breakfast staff were efficient, clean, cheerful, and helpful.Guests use areas of the hotel were very good.  The fitness room was clean and adequate with flat screen TVs to watch during your workout.  The pool looked clean, but I never used it.  The lobby was spacious and comfortable with a great picture on a large flat-screen TV.  The business area consisted of 2 PCs in part of the lobby; the connection was fast and the screen resolution sharp.  Guests with wireless laptops were able to work from the breakfast area and lobby.Everyone working at the hotel from front desk, to housekeeping, to maintenance worked hard to make the guests feel welcome and comfortable.  We were extremely satisfied with this choice for our stay in northwest Houston.  The weekend discount made the hotel affordable for our visit with family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r18053050-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>18053050</t>
+  </si>
+  <si>
+    <t>07/19/2008</t>
+  </si>
+  <si>
+    <t>AWESOME!!!!!</t>
+  </si>
+  <si>
+    <t>This place is great. There is a seperate living area with sofa and chair, desk area, kitchen with dishwasher, cookware, stove, full size microwave and refrigerator.  It is just like being in an apartment.  The pool area was really nice and big.  Everything from the room to the pool area was so clean.  Even the breakfast had everything you could want  ,eggs, sausage, pancakes, waffles, oatmeal, cereal, toast,  danishes, ok, I could go on and on. Anyway I would surely stay here again and again if I am ever back in the area. There is also a mall across the street and several restaurants very nearby.  There isn't anything bad that I could say about this place.  We had a very pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>This place is great. There is a seperate living area with sofa and chair, desk area, kitchen with dishwasher, cookware, stove, full size microwave and refrigerator.  It is just like being in an apartment.  The pool area was really nice and big.  Everything from the room to the pool area was so clean.  Even the breakfast had everything you could want  ,eggs, sausage, pancakes, waffles, oatmeal, cereal, toast,  danishes, ok, I could go on and on. Anyway I would surely stay here again and again if I am ever back in the area. There is also a mall across the street and several restaurants very nearby.  There isn't anything bad that I could say about this place.  We had a very pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r15388744-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>15388744</t>
+  </si>
+  <si>
+    <t>04/26/2008</t>
+  </si>
+  <si>
+    <t>Extended stay? Family of four or more? This is the way to go!</t>
+  </si>
+  <si>
+    <t>One of the best hotel experiences I've ever had. There were four adults and a toddler that stayed in a two-bedroom, two-bathroom suite and it felt like just the right amount of space. The kitchen and refrigerator are also full size. The complimentary breakfast  buffet is pretty nice and helps offset the cost of the suite. The hotel is convenient to major highways and to Bush Intercontinental Airport. It's also convenient to restaurants and family-oriented activities such as shopping, mini golf, etc.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r15284565-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>15284565</t>
+  </si>
+  <si>
+    <t>04/23/2008</t>
+  </si>
+  <si>
+    <t>Good Precruise Stay</t>
+  </si>
+  <si>
+    <t>Located just off the highway by a mall. Quiet. Clean. We were able to book a two bedroom two bath suite with a kitchen for the five of us. (using Marriot points, bonus!) Good morning breakfast with hot items. Indoor pool with a hottub. Small workout room but they had a small fridge in there with iced towels. (nice touch) About 1 hour and 15 minutes from Galveston. I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r6021429-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6021429</t>
+  </si>
+  <si>
+    <t>10/27/2006</t>
+  </si>
+  <si>
+    <t>Very Happy with This Residence Inn</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn Willowbrook for a five-day family visit and were very happy with our stay.  We had a two bedroom, two bath suite which worked superbly as we were travelling with two teens who "like their own space."  We had one bedroom, one kid had the other and the center living room/kitchen served as a third bedroom.  We enjoyed the complimentary, full breakfasts each morning which included eggs, meats, potatoes, along with lots of fruits and all the usual cereals, waffles, breads, etc.  During the week they also offered complimentary, light dinners from local restaurants such as Olive Garden, but we were always elsewhere so were unable to try.  We did use the exercise room (two treadmills, an elliptical trainer and a bike), indoor pool and the outdoor basketball/ platform tennis court.  We also used the nice lobby/sitting/breakfast room to meet with family in front of the fire.  There were ample magazines and newspapers available.  Overall, the facilities were clean and in good order and the staff were all unfailingly pleasant and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn Willowbrook for a five-day family visit and were very happy with our stay.  We had a two bedroom, two bath suite which worked superbly as we were travelling with two teens who "like their own space."  We had one bedroom, one kid had the other and the center living room/kitchen served as a third bedroom.  We enjoyed the complimentary, full breakfasts each morning which included eggs, meats, potatoes, along with lots of fruits and all the usual cereals, waffles, breads, etc.  During the week they also offered complimentary, light dinners from local restaurants such as Olive Garden, but we were always elsewhere so were unable to try.  We did use the exercise room (two treadmills, an elliptical trainer and a bike), indoor pool and the outdoor basketball/ platform tennis court.  We also used the nice lobby/sitting/breakfast room to meet with family in front of the fire.  There were ample magazines and newspapers available.  Overall, the facilities were clean and in good order and the staff were all unfailingly pleasant and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r4396615-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4396615</t>
+  </si>
+  <si>
+    <t>01/28/2006</t>
+  </si>
+  <si>
+    <t>The nicest place to stay in Northwest Houston</t>
+  </si>
+  <si>
+    <t>I have stayed twice at the Residence Inn - Willbrook Mall area.  The last visit was Dec. 05 and I had a great experience.  The room was clean and everything looked fresh.  I didn't eat any of the food this time but I saw that it was available.   You pay more for the room but it is worth it knowing you have lovely, clean place to stay.  It is also convenient to the Sam Houston Toll Road and of course Willowbrook Mall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r3661827-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3661827</t>
+  </si>
+  <si>
+    <t>07/11/2005</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>We just came back from long weekend in the Houston area.  We had to visit relatives in nearby Tomball, TX.  We booked a 1 bedroom suite.  The suite had a small living room (with a pullout couch), a desk with a free internet connection, a small kitchen (fully equipped), a small dinette with 2 chairs, and a bedroom with a queen size bed.  There were 2 TVs, one in the living room and one in the bedroom.  The hotel is designed for extended stays, but is also great for short stays like ours.  The sink with vanity is separated from the bathroom (which has the toilet and the bathtub).  There was a free continental breakfast every morning in the main lounge, that also included scrambled eggs, oatmeal, and a make-your-own-waffles station.  There's an indoor pool with jacuzzi and a small gym.  There's even a basketball/tennis court outside.The Willowbrook mall is right across the street along with a ton of strip malls along the highway.  There are plenty of restaurants to choose from.All in all it was a great place to stay while visiting with our family.MoreShow less</t>
+  </si>
+  <si>
+    <t>We just came back from long weekend in the Houston area.  We had to visit relatives in nearby Tomball, TX.  We booked a 1 bedroom suite.  The suite had a small living room (with a pullout couch), a desk with a free internet connection, a small kitchen (fully equipped), a small dinette with 2 chairs, and a bedroom with a queen size bed.  There were 2 TVs, one in the living room and one in the bedroom.  The hotel is designed for extended stays, but is also great for short stays like ours.  The sink with vanity is separated from the bathroom (which has the toilet and the bathtub).  There was a free continental breakfast every morning in the main lounge, that also included scrambled eggs, oatmeal, and a make-your-own-waffles station.  There's an indoor pool with jacuzzi and a small gym.  There's even a basketball/tennis court outside.The Willowbrook mall is right across the street along with a ton of strip malls along the highway.  There are plenty of restaurants to choose from.All in all it was a great place to stay while visiting with our family.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2021,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2053,4244 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>227</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>228</v>
+      </c>
+      <c r="X22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>236</v>
+      </c>
+      <c r="O23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>237</v>
+      </c>
+      <c r="X23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>241</v>
+      </c>
+      <c r="J24" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>245</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>252</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>237</v>
+      </c>
+      <c r="X25" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" t="s">
+        <v>258</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>268</v>
+      </c>
+      <c r="X27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>276</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>293</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s">
+        <v>299</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>300</v>
+      </c>
+      <c r="X31" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" t="s">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s">
+        <v>307</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>308</v>
+      </c>
+      <c r="X32" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" t="s">
+        <v>313</v>
+      </c>
+      <c r="K33" t="s">
+        <v>314</v>
+      </c>
+      <c r="L33" t="s">
+        <v>315</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>316</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>316</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>308</v>
+      </c>
+      <c r="X34" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>324</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>325</v>
+      </c>
+      <c r="J35" t="s">
+        <v>326</v>
+      </c>
+      <c r="K35" t="s">
+        <v>327</v>
+      </c>
+      <c r="L35" t="s">
+        <v>328</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>329</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>330</v>
+      </c>
+      <c r="X35" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>334</v>
+      </c>
+      <c r="J36" t="s">
+        <v>335</v>
+      </c>
+      <c r="K36" t="s">
+        <v>336</v>
+      </c>
+      <c r="L36" t="s">
+        <v>337</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>308</v>
+      </c>
+      <c r="X36" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>339</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>340</v>
+      </c>
+      <c r="J37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" t="s">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s">
+        <v>343</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>329</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>344</v>
+      </c>
+      <c r="X37" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>348</v>
+      </c>
+      <c r="J38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K38" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s">
+        <v>351</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>329</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>352</v>
+      </c>
+      <c r="X39" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>364</v>
+      </c>
+      <c r="K40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>360</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>352</v>
+      </c>
+      <c r="X40" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>374</v>
+      </c>
+      <c r="X41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" t="s">
+        <v>380</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>381</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>384</v>
+      </c>
+      <c r="J43" t="s">
+        <v>385</v>
+      </c>
+      <c r="K43" t="s">
+        <v>386</v>
+      </c>
+      <c r="L43" t="s">
+        <v>387</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>388</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>389</v>
+      </c>
+      <c r="X43" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" t="s">
+        <v>394</v>
+      </c>
+      <c r="K44" t="s">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s">
+        <v>396</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>388</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>397</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>398</v>
+      </c>
+      <c r="J45" t="s">
+        <v>399</v>
+      </c>
+      <c r="K45" t="s">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s">
+        <v>401</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>402</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>404</v>
+      </c>
+      <c r="J46" t="s">
+        <v>405</v>
+      </c>
+      <c r="K46" t="s">
+        <v>406</v>
+      </c>
+      <c r="L46" t="s">
+        <v>407</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>408</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>410</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>411</v>
+      </c>
+      <c r="J47" t="s">
+        <v>412</v>
+      </c>
+      <c r="K47" t="s">
+        <v>413</v>
+      </c>
+      <c r="L47" t="s">
+        <v>414</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>415</v>
+      </c>
+      <c r="O47" t="s">
+        <v>125</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>418</v>
+      </c>
+      <c r="J48" t="s">
+        <v>419</v>
+      </c>
+      <c r="K48" t="s">
+        <v>420</v>
+      </c>
+      <c r="L48" t="s">
+        <v>421</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>415</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>422</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>423</v>
+      </c>
+      <c r="J49" t="s">
+        <v>424</v>
+      </c>
+      <c r="K49" t="s">
+        <v>425</v>
+      </c>
+      <c r="L49" t="s">
+        <v>426</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>427</v>
+      </c>
+      <c r="X49" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>430</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>431</v>
+      </c>
+      <c r="J50" t="s">
+        <v>432</v>
+      </c>
+      <c r="K50" t="s">
+        <v>433</v>
+      </c>
+      <c r="L50" t="s">
+        <v>434</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>435</v>
+      </c>
+      <c r="O50" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>436</v>
+      </c>
+      <c r="X50" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>439</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>440</v>
+      </c>
+      <c r="J51" t="s">
+        <v>441</v>
+      </c>
+      <c r="K51" t="s">
+        <v>442</v>
+      </c>
+      <c r="L51" t="s">
+        <v>443</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>444</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>445</v>
+      </c>
+      <c r="X51" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>448</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>449</v>
+      </c>
+      <c r="J52" t="s">
+        <v>450</v>
+      </c>
+      <c r="K52" t="s">
+        <v>451</v>
+      </c>
+      <c r="L52" t="s">
+        <v>452</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>453</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>445</v>
+      </c>
+      <c r="X52" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>455</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>456</v>
+      </c>
+      <c r="J53" t="s">
+        <v>457</v>
+      </c>
+      <c r="K53" t="s">
+        <v>458</v>
+      </c>
+      <c r="L53" t="s">
+        <v>459</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>460</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>461</v>
+      </c>
+      <c r="J54" t="s">
+        <v>462</v>
+      </c>
+      <c r="K54" t="s">
+        <v>463</v>
+      </c>
+      <c r="L54" t="s">
+        <v>464</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>465</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>466</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>467</v>
+      </c>
+      <c r="J55" t="s">
+        <v>468</v>
+      </c>
+      <c r="K55" t="s">
+        <v>469</v>
+      </c>
+      <c r="L55" t="s">
+        <v>470</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>471</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>472</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>474</v>
+      </c>
+      <c r="K56" t="s">
+        <v>475</v>
+      </c>
+      <c r="L56" t="s">
+        <v>476</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>477</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>479</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>480</v>
+      </c>
+      <c r="J57" t="s">
+        <v>481</v>
+      </c>
+      <c r="K57" t="s">
+        <v>482</v>
+      </c>
+      <c r="L57" t="s">
+        <v>483</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>484</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>485</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>486</v>
+      </c>
+      <c r="J58" t="s">
+        <v>487</v>
+      </c>
+      <c r="K58" t="s">
+        <v>488</v>
+      </c>
+      <c r="L58" t="s">
+        <v>489</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>490</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>492</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>493</v>
+      </c>
+      <c r="J59" t="s">
+        <v>494</v>
+      </c>
+      <c r="K59" t="s">
+        <v>495</v>
+      </c>
+      <c r="L59" t="s">
+        <v>496</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>497</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>499</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>500</v>
+      </c>
+      <c r="J60" t="s">
+        <v>501</v>
+      </c>
+      <c r="K60" t="s">
+        <v>502</v>
+      </c>
+      <c r="L60" t="s">
+        <v>503</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>504</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>505</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J61" t="s">
+        <v>507</v>
+      </c>
+      <c r="K61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L61" t="s">
+        <v>509</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>504</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>510</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>511</v>
+      </c>
+      <c r="J62" t="s">
+        <v>512</v>
+      </c>
+      <c r="K62" t="s">
+        <v>513</v>
+      </c>
+      <c r="L62" t="s">
+        <v>514</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>515</v>
+      </c>
+      <c r="O62" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>517</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>518</v>
+      </c>
+      <c r="J63" t="s">
+        <v>519</v>
+      </c>
+      <c r="K63" t="s">
+        <v>520</v>
+      </c>
+      <c r="L63" t="s">
+        <v>521</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>522</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>523</v>
+      </c>
+      <c r="J64" t="s">
+        <v>524</v>
+      </c>
+      <c r="K64" t="s">
+        <v>525</v>
+      </c>
+      <c r="L64" t="s">
+        <v>526</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_545.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_545.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="829">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r601320066-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>266145</t>
+  </si>
+  <si>
+    <t>601320066</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Superb staff but hotel needs updating</t>
+  </si>
+  <si>
+    <t>We were in town for our son's wedding and stayed for 2 nights. The staff was very flexible with all of our needs. including needing a pack-n-play, roll away, and late check out. The furnishings and fixtures were comfortable but outdated.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Diana D, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded July 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2018</t>
+  </si>
+  <si>
+    <t>We were in town for our son's wedding and stayed for 2 nights. The staff was very flexible with all of our needs. including needing a pack-n-play, roll away, and late check out. The furnishings and fixtures were comfortable but outdated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r599722364-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599722364</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel but housekeeping needs improvements.</t>
+  </si>
+  <si>
+    <t>We prefer Residence Inns because they always provide clean and comfortable suites.  The Residence Inn Houston Willowbrook fit that description except for the housekeeping.  Our latest stay was for 5 nights and every day had some housekeeping issues ranging from trash cans not being emptied to replacement soaps not being provided (I had to go to the front desk 2 different days to get more soap) and after our 4th night they never came to the room at all, no beds were made, towels were still on the floor and dirty dishes were on the counter.I hope these issues get resolved as we will probably stay here again as it is convenient to our family.MoreShow less</t>
+  </si>
+  <si>
+    <t>diana d, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2018</t>
+  </si>
+  <si>
+    <t>We prefer Residence Inns because they always provide clean and comfortable suites.  The Residence Inn Houston Willowbrook fit that description except for the housekeeping.  Our latest stay was for 5 nights and every day had some housekeeping issues ranging from trash cans not being emptied to replacement soaps not being provided (I had to go to the front desk 2 different days to get more soap) and after our 4th night they never came to the room at all, no beds were made, towels were still on the floor and dirty dishes were on the counter.I hope these issues get resolved as we will probably stay here again as it is convenient to our family.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r577636483-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>266145</t>
-  </si>
-  <si>
     <t>577636483</t>
   </si>
   <si>
@@ -234,9 +288,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Diana D, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded January 28, 2018</t>
   </si>
   <si>
@@ -246,6 +297,57 @@
     <t>I absolutely love this place. My kids love the amenities and we love the staff. From the front desk girls to the housekeeping we are always greeted with a smile and wonderful words. The breakfast is always good and love The In The Mix night . Current updates being made and it looks so classy with some Texas sassy. We have stayed at others and we always cant wait to come back here. We went from short few nights to extended stay and still love it. Grounds are very well kept and nice oak trees to take pets out and just sit in sun. Most of all we feel at home !!!! Oh hot tub gets very hot and pool stays good to so kids can play and parents relax or sit in courtyard and bask in the sunMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r544795715-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544795715</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Filthy and worn.</t>
+  </si>
+  <si>
+    <t>This hotel is long past it’s better days. Furniture was worn and dirty looking. Sticky things on desk. Burn marks on carpet. Stains on couch and bedding. Faux leather peeling off of chair. Dead bug on floor of closet. I didn’t even stay an hour. Nothing felt clean. Filthy! (And I’m not usually a whiner.) Front desk agent at least checked me out without hassle. There are many other nicer options nearby. Try the hotel across the highway. Stayed there two weeks and it was terrific. MoreShow less</t>
+  </si>
+  <si>
+    <t>diana d, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is long past it’s better days. Furniture was worn and dirty looking. Sticky things on desk. Burn marks on carpet. Stains on couch and bedding. Faux leather peeling off of chair. Dead bug on floor of closet. I didn’t even stay an hour. Nothing felt clean. Filthy! (And I’m not usually a whiner.) Front desk agent at least checked me out without hassle. There are many other nicer options nearby. Try the hotel across the highway. Stayed there two weeks and it was terrific. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r531403379-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531403379</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Great stay and great service!</t>
+  </si>
+  <si>
+    <t>The hot tub gets really hot, staff is very accommodating and friendly.  The constant free meals and beer/wine was very pleasing.  I never stay anywhere that I get free meals like that.  Being a long stay it was nice having the full kitchen as well as outside area with a fire pit and large grill.  3 washers/6 dryers.  I was always able to do laundryMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Jessica G, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>The hot tub gets really hot, staff is very accommodating and friendly.  The constant free meals and beer/wine was very pleasing.  I never stay anywhere that I get free meals like that.  Being a long stay it was nice having the full kitchen as well as outside area with a fire pit and large grill.  3 washers/6 dryers.  I was always able to do laundryMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r522788749-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -325,6 +427,60 @@
   </si>
   <si>
     <t>While staying for a business trip, I was here for almost 2 weeks. My room was clean, updated, and convient to where I was working. It is also close to the mall and several good eating establishments ( BJs and bone house- don't go to TGI Friday's). Breakfast was typical continental but worked for me. There's a little kitchenette, table, desk and sleeper sofa. Gym leaves something to be desired as it's just a treadmill and some hand weights basically. Hot tub was decent. Didn't use the pool. Several areas around the property were okay for studying with my group. Would certainly stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r474259005-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474259005</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful-- 1 bedroom suite, living room, kitchen, evening snacks &amp; drinks Mon-Wed and good breakfast buffet. Very clean hotel in a great location. From desk staff extremely friendly and helpful. Beautiful wooded/garden areas to look at from roomsMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful-- 1 bedroom suite, living room, kitchen, evening snacks &amp; drinks Mon-Wed and good breakfast buffet. Very clean hotel in a great location. From desk staff extremely friendly and helpful. Beautiful wooded/garden areas to look at from roomsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r473086916-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473086916</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Good value and location in Houston Area</t>
+  </si>
+  <si>
+    <t>Staff was great. The accommodations, 2-bedroom, 2 bath was comfortable.  As others have noted, this Residence Inn is not as updated as others.  However, it was ok for my party of three adults. I would rate it 3.5 stars. It is located next to a Japanese Steakhouse and very close to the Willowbrook Shopping Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Residence Inn M, Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Staff was great. The accommodations, 2-bedroom, 2 bath was comfortable.  As others have noted, this Residence Inn is not as updated as others.  However, it was ok for my party of three adults. I would rate it 3.5 stars. It is located next to a Japanese Steakhouse and very close to the Willowbrook Shopping Mall.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r463497059-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
@@ -396,9 +552,6 @@
 My main complaint about the room was that I could not sleep if my husband got up early, between the bathroom lights and the noise of the running water I didn’t have a chance of sleeping through it....We picked this Residence Inn because of the good rate and location. We flew into George Bush Intercontinental Airport, rented a car and had an easy drive to the hotel.  We arrived around 2 PM and our room was ready. Check in was fast and easy. Our one bedroom suite was very compact; it included a small kitchen with a two person table, TV area with a recliner and couch, a desk and a coat closet.  The bedroom had a queen sized bed, sink, closet, and a small room with a toilet, a bath tub that included a shower.The suite was clean except for the carpet, which had a lot of dirty spots.  The couch in the living area was extremely uncomfortable, almost unusable. Our bed was comfortable, although we would have preferred a king size – that was not available in the one room suite, I am guessing because of how small the room was.  The air conditioning worked very well, we set it at 66 degrees and kept the fan running. There was not an room safe; there was an ironing board and iron.  The hair dryer was not powerful and could only be used in the bathroom area.My main complaint about the room was that I could not sleep if my husband got up early, between the bathroom lights and the noise of the running water I didn’t have a chance of sleeping through it.  I wish there had been a door closing off the bedroom from the bathroom.The internet worked fine.  There was a printer in the lobby, it was out of order so we could not print our boarding passes.  There is a large guest laundry room on the 2nd floor, we did not use it but it looked very nice - $1.50 per wash, $1.50 per dryer.  Laundry detergent and change was available at the front desk. The breakfast was nothing special: icky scrambled eggs, bacon one morning, sausage the other two mornings.  The fresh fruit was pretty good, there was also bread, yogurt, cereal and a waffle maker.  Biscuits and gravy were available one morning, I don’t care for them, but my husband said they were pretty good – the biscuits were very dry and really needed the gravy. I enjoyed the coffee.I am giving this hotel an average rating because it needs a remodel, the carpeting is dirty and wear and tear shows throughout.  We are in Houston every few months and would stay at this hotel again if the circumstances were right.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 15, 2017</t>
   </si>
   <si>
@@ -411,6 +564,54 @@
 My main complaint about the room was that I could not sleep if my husband got up early, between the bathroom lights and the noise of the running water I didn’t have a chance of sleeping through it....We picked this Residence Inn because of the good rate and location. We flew into George Bush Intercontinental Airport, rented a car and had an easy drive to the hotel.  We arrived around 2 PM and our room was ready. Check in was fast and easy. Our one bedroom suite was very compact; it included a small kitchen with a two person table, TV area with a recliner and couch, a desk and a coat closet.  The bedroom had a queen sized bed, sink, closet, and a small room with a toilet, a bath tub that included a shower.The suite was clean except for the carpet, which had a lot of dirty spots.  The couch in the living area was extremely uncomfortable, almost unusable. Our bed was comfortable, although we would have preferred a king size – that was not available in the one room suite, I am guessing because of how small the room was.  The air conditioning worked very well, we set it at 66 degrees and kept the fan running. There was not an room safe; there was an ironing board and iron.  The hair dryer was not powerful and could only be used in the bathroom area.My main complaint about the room was that I could not sleep if my husband got up early, between the bathroom lights and the noise of the running water I didn’t have a chance of sleeping through it.  I wish there had been a door closing off the bedroom from the bathroom.The internet worked fine.  There was a printer in the lobby, it was out of order so we could not print our boarding passes.  There is a large guest laundry room on the 2nd floor, we did not use it but it looked very nice - $1.50 per wash, $1.50 per dryer.  Laundry detergent and change was available at the front desk. The breakfast was nothing special: icky scrambled eggs, bacon one morning, sausage the other two mornings.  The fresh fruit was pretty good, there was also bread, yogurt, cereal and a waffle maker.  Biscuits and gravy were available one morning, I don’t care for them, but my husband said they were pretty good – the biscuits were very dry and really needed the gravy. I enjoyed the coffee.I am giving this hotel an average rating because it needs a remodel, the carpeting is dirty and wear and tear shows throughout.  We are in Houston every few months and would stay at this hotel again if the circumstances were right.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r441167026-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441167026</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>Nice property and a great north side location.</t>
+  </si>
+  <si>
+    <t>I like this Residence Inn as all of the rooms are accessible from an inside hallway. This property is a little bit dated, but it is clean. The rates are reasonable for this area. I really enjoy the king suite room as there are two different living areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>I like this Residence Inn as all of the rooms are accessible from an inside hallway. This property is a little bit dated, but it is clean. The rates are reasonable for this area. I really enjoy the king suite room as there are two different living areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r440576275-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440576275</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Good stay, very serviceminded staff.</t>
+  </si>
+  <si>
+    <t>Stayed for 15 nights on business. Nice spacious suite with full size appliances wich was perfect as most my days started early before breakfast was served (breakfast served from 6:30). Close proximity to willowbrook mall, and plenty of restaurants. Welcoming staff, very serviceminded and polite. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Stayed for 15 nights on business. Nice spacious suite with full size appliances wich was perfect as most my days started early before breakfast was served (breakfast served from 6:30). Close proximity to willowbrook mall, and plenty of restaurants. Welcoming staff, very serviceminded and polite. Would stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r438290004-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -426,9 +627,6 @@
     <t>We ended up staying an extended period of time in Houston at the Residence Inn Willowbrook.  It is a basic but sufficient hotel.  Rooms are one or two bedroom suites, indoor pool and hot tub, "mixers" Monday-Wednesday night (free food and beverages), tennis court and basketball goal.  The staff was friendly and helpful.  The hotel is next to Willowbrook Mall along with many stores and restaurants in the area.  State Highway 249 and Beltway 8 offer easy access to where you want to go.  The hotel offered very reasonable rates.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded November 28, 2016</t>
   </si>
   <si>
@@ -477,6 +675,57 @@
     <t>The property is outdated.  I think all the furniture needs to be replaced.  I found the queen bed to be way too soft and uncomfortable.  The staff however is great, very friendly and helpful.  Breakfast is pretty much average.  I won't say that it's a bad hotel, but it does need some work.  Good location and close to lots of restaurants.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r434894942-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434894942</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>I will come back again to the hotel</t>
+  </si>
+  <si>
+    <t>This hotel was excellent , The rooms were very clean. Aim regular visiting Houston for Business my wife wish we had stayed longThe front desk young lady her name was Kat, She assisted me and my wife during check inn and on  a daily basis with answering questions support for shopping area etc. ,honestly it was great service Aim sure I will come back again to the hotel during my next trips to Houston we feel like at home  Ashraf A,S,&amp; Nadia .AMoreShow less</t>
+  </si>
+  <si>
+    <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was excellent , The rooms were very clean. Aim regular visiting Houston for Business my wife wish we had stayed longThe front desk young lady her name was Kat, She assisted me and my wife during check inn and on  a daily basis with answering questions support for shopping area etc. ,honestly it was great service Aim sure I will come back again to the hotel during my next trips to Houston we feel like at home  Ashraf A,S,&amp; Nadia .AMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r422736164-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422736164</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Property tired, staff is wonderful</t>
+  </si>
+  <si>
+    <t>Stayed a night on business this past week.  Location is ok, right off of 249 and Greens Road, close to Willowbrook Mall.  Property is dated and could use an update.  Rugs are worn, bathroom (toilet) has a funky odor and furniture needs replaced.  Staff upon check-in was very friendly as was the staff in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Stayed a night on business this past week.  Location is ok, right off of 249 and Greens Road, close to Willowbrook Mall.  Property is dated and could use an update.  Rugs are worn, bathroom (toilet) has a funky odor and furniture needs replaced.  Staff upon check-in was very friendly as was the staff in the morning.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r412892183-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -492,15 +741,6 @@
     <t>My husband's sister lives in Spring, TX and she was having a party for her 50th birthday.  My husband and I as well as several of her friends from out of town stayed here. The front desk staff was very friendly. We were happy with the hotel and our room. The room has a fridge, cook top, pots and dishware and glassware. The bed was very comfortable. Breakfast is everyday from 6am until 9am. They had a wide variety of choices for example they had different breads, oatmeal, eggs,sausage, yogurt,cereal, waffles and more.  Something for everyone.  The hotel has a small fitness room and an indoor pool.  We were very happy with our stay and we highly recommend this hotel.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>Joseph S, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded October 7, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 7, 2016</t>
-  </si>
-  <si>
     <t>My husband's sister lives in Spring, TX and she was having a party for her 50th birthday.  My husband and I as well as several of her friends from out of town stayed here. The front desk staff was very friendly. We were happy with the hotel and our room. The room has a fridge, cook top, pots and dishware and glassware. The bed was very comfortable. Breakfast is everyday from 6am until 9am. They had a wide variety of choices for example they had different breads, oatmeal, eggs,sausage, yogurt,cereal, waffles and more.  Something for everyone.  The hotel has a small fitness room and an indoor pool.  We were very happy with our stay and we highly recommend this hotel.More</t>
   </si>
   <si>
@@ -558,6 +798,60 @@
     <t>We stayed here while visiting nearby family. The hotel is very convenient to HWY 249 and nearby tollway. The hotel is just 1 block off the highway but setting is more like being in a neighborhood. Rooms are extremely spacious with nice fully equipped kitchens. They offer a happy hour during midweek which we were not there for but daily breakfast very goodMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r361144035-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361144035</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final four </t>
+  </si>
+  <si>
+    <t>Hotel stay was great. Well kept. Service was excellent from staff. Continental breakfast has great variety. The pool and sitting areas are nice and not worn down. There are things for the entire family to do nearby too that made this hotel a great choice. I would surely consider them again when I come back to Houston.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Hotel stay was great. Well kept. Service was excellent from staff. Continental breakfast has great variety. The pool and sitting areas are nice and not worn down. There are things for the entire family to do nearby too that made this hotel a great choice. I would surely consider them again when I come back to Houston.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r360177161-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360177161</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>This hotel was really great.  The rooms were enormous and very clean.  I loved the full kitchen and wish we had stayed long enough to use it.  The queen bed was very comfortable. The couch bed, on the other hand, was a little lumpy and saggy, but nothing that a young person or child would complain about.  The room even had a little fire place.  I couldn't get it to turn on, but I may have been doing something incorrectly.  The breakfast was varied and plentiful.  The staff was very friendly and made us feel welcome.  We didn't use the indoor pool, but if we had stayed longer, it looked like a nice place to spend some time relaxing.  Overall, this place was just what we were looking for and I would love to stay here again the next time we are in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded April 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was really great.  The rooms were enormous and very clean.  I loved the full kitchen and wish we had stayed long enough to use it.  The queen bed was very comfortable. The couch bed, on the other hand, was a little lumpy and saggy, but nothing that a young person or child would complain about.  The room even had a little fire place.  I couldn't get it to turn on, but I may have been doing something incorrectly.  The breakfast was varied and plentiful.  The staff was very friendly and made us feel welcome.  We didn't use the indoor pool, but if we had stayed longer, it looked like a nice place to spend some time relaxing.  Overall, this place was just what we were looking for and I would love to stay here again the next time we are in Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r356872066-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -573,9 +867,6 @@
     <t>Staying here for a 17 night business trip.  The first evening I arrived I was a little worried.  The hotel seemed a little old... Lamp shades broken, marks on walls as you walked down the hall, scribbles on the furniture. As time went on I barely noticed these things.  What I did notice was the complementary snacks and drinks Monday through Wednesday night, the convenient dry cleaning service, the patio with fire pit, the warm and friendly staff at the front desk, and the fact that my bed was always made at the end of my very long days.  Breakfast in the morning is free but can get a little old after 17 days... The fruit parfait is the best.  Thank you Residence Inn.   MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded March 21, 2016</t>
   </si>
   <si>
@@ -636,6 +927,54 @@
     <t>First visit to America! Stayed for 2 nights on a quick business trip to Houston. Spent the majority of my time in Houston in the hotel. Breakfast poor and all hot food was cold. No bar or restaurant to eat in. Couldn't even get a coffee except at breakfast. Rooms spacious and well equipped. Bed very comfortable. Enjoyed my stay but would probably stay elsewhere if I returned. I'm sure Houston would have more to offer. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r338982731-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338982731</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Our extended stay thanks to our LG washer!</t>
+  </si>
+  <si>
+    <t>We stayed at the Willowbrook Residence Inn while our house was being repaired thanks to our 2 year old LG  washing machine flooding our house.They were very accommodating, the maids were conscience of our cats and kept the door somewhat shut. Nice lobby, fire pit and an indoor pool and whirlpool!! The morning breakfast is a nice touch pretty much the same continental breakfast. I couldn't think of a better home away from home!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded January 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Willowbrook Residence Inn while our house was being repaired thanks to our 2 year old LG  washing machine flooding our house.They were very accommodating, the maids were conscience of our cats and kept the door somewhat shut. Nice lobby, fire pit and an indoor pool and whirlpool!! The morning breakfast is a nice touch pretty much the same continental breakfast. I couldn't think of a better home away from home!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r321363397-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321363397</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Staff ignorant &amp; unhelpful</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 2 weeks during September. I had used my debit card to pay hotel charges &amp; had enough money in the account to cover my period of stay. When I checked into the hotel, the receptionist had put a holding charge on my card to cover the approximate room rent during my period of stay. However, after my first week of stay they charged me again for the weeks stay without adjusting the same against the holding charge. In addition, they once again put another holding charge on my card in lieu of the next weeks stay. On being asked, they mentioned that the holding charges would get automatically reversed within 5 days of initial charge... however this did not happen. During my final checkout at the end of second week, they tried to charge my card once again. However, this got rejected since now my card was getting overdrawn. I asked them to adjust the bill against the holding charge but the receptionist seemed ignorant &amp; mentioned that they won't be able to do the same. She was not willing to do anything on her part &amp; kept insisting that I need to arrange for payment. I had to spend hours talking to the bank to allow the additional charges. The bank asked for void slip from the hotel which would enable them to reverse the holding charges but to my surprise, the hotel...I stayed in this hotel for 2 weeks during September. I had used my debit card to pay hotel charges &amp; had enough money in the account to cover my period of stay. When I checked into the hotel, the receptionist had put a holding charge on my card to cover the approximate room rent during my period of stay. However, after my first week of stay they charged me again for the weeks stay without adjusting the same against the holding charge. In addition, they once again put another holding charge on my card in lieu of the next weeks stay. On being asked, they mentioned that the holding charges would get automatically reversed within 5 days of initial charge... however this did not happen. During my final checkout at the end of second week, they tried to charge my card once again. However, this got rejected since now my card was getting overdrawn. I asked them to adjust the bill against the holding charge but the receptionist seemed ignorant &amp; mentioned that they won't be able to do the same. She was not willing to do anything on her part &amp; kept insisting that I need to arrange for payment. I had to spend hours talking to the bank to allow the additional charges. The bank asked for void slip from the hotel which would enable them to reverse the holding charges but to my surprise, the hotel receptionist (Kat) expressed her inability to issue void slips. Finally, the bank allowed the overdraft &amp; I was able to pay the bills. I am now having to wait for a full 30 days for reversal of the holding charges. I expected hotel receptionist to be at least knowledgeable on how to charge debit cards &amp; be helpful when their ignorance causes trouble to the guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded November 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 2 weeks during September. I had used my debit card to pay hotel charges &amp; had enough money in the account to cover my period of stay. When I checked into the hotel, the receptionist had put a holding charge on my card to cover the approximate room rent during my period of stay. However, after my first week of stay they charged me again for the weeks stay without adjusting the same against the holding charge. In addition, they once again put another holding charge on my card in lieu of the next weeks stay. On being asked, they mentioned that the holding charges would get automatically reversed within 5 days of initial charge... however this did not happen. During my final checkout at the end of second week, they tried to charge my card once again. However, this got rejected since now my card was getting overdrawn. I asked them to adjust the bill against the holding charge but the receptionist seemed ignorant &amp; mentioned that they won't be able to do the same. She was not willing to do anything on her part &amp; kept insisting that I need to arrange for payment. I had to spend hours talking to the bank to allow the additional charges. The bank asked for void slip from the hotel which would enable them to reverse the holding charges but to my surprise, the hotel...I stayed in this hotel for 2 weeks during September. I had used my debit card to pay hotel charges &amp; had enough money in the account to cover my period of stay. When I checked into the hotel, the receptionist had put a holding charge on my card to cover the approximate room rent during my period of stay. However, after my first week of stay they charged me again for the weeks stay without adjusting the same against the holding charge. In addition, they once again put another holding charge on my card in lieu of the next weeks stay. On being asked, they mentioned that the holding charges would get automatically reversed within 5 days of initial charge... however this did not happen. During my final checkout at the end of second week, they tried to charge my card once again. However, this got rejected since now my card was getting overdrawn. I asked them to adjust the bill against the holding charge but the receptionist seemed ignorant &amp; mentioned that they won't be able to do the same. She was not willing to do anything on her part &amp; kept insisting that I need to arrange for payment. I had to spend hours talking to the bank to allow the additional charges. The bank asked for void slip from the hotel which would enable them to reverse the holding charges but to my surprise, the hotel receptionist (Kat) expressed her inability to issue void slips. Finally, the bank allowed the overdraft &amp; I was able to pay the bills. I am now having to wait for a full 30 days for reversal of the holding charges. I expected hotel receptionist to be at least knowledgeable on how to charge debit cards &amp; be helpful when their ignorance causes trouble to the guests.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r304034552-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -715,6 +1054,51 @@
   </si>
   <si>
     <t>We've never been happier with a hotel. The room was perfectly clean, with a good basic kitchen, comfy beds, and an awesome shower. The pool and hot tub were great, and there was a really nice outdoor patio area with a barbecue and fire pit. Breakfast was delicious and had a good variety. Lastly, the staff was friendly and aimed to please. If I had to come up with something to complain about, I guess I'd say that the only blankets on the beds were too heavy unless you were really going to crank the AC. They'd do well to provide something lighter. But we would have loved to stay there longer! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r273149593-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273149593</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay at this facility. Of most importance to me is that the room was clean and updated,which this was. The hotel staff was extremely friendly and went out of their way to make sure I enjoyed my stay. The RI is located close to numerous restaurants and other amenities. It's actually not far from the airport either. Overall I had a good stay there and felt well rested.MoreShow less</t>
+  </si>
+  <si>
+    <t>Abby O, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay at this facility. Of most importance to me is that the room was clean and updated,which this was. The hotel staff was extremely friendly and went out of their way to make sure I enjoyed my stay. The RI is located close to numerous restaurants and other amenities. It's actually not far from the airport either. Overall I had a good stay there and felt well rested.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r260023973-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260023973</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Room for whole family! Friendly! Clean!</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel with an indoor pool and enough room for our family and we found it.  We liked that it was on our way to NRG Stadium so we could relax before our day at the Rodeo. Even though it was not close to the stadium, we chose this hotel for the size of rooms, indoor pool, and not having to drive thru downtown morning traffic to head back home.  The room was spacious and clean, with a cozy gas fireplace.  We feel the room could use a updated range.  They need to change the eggs they use for their breakfast buffet.  The eggs tasted like plastic, no amount of salt/pepper or salsa could save them.  When we arrived late from the concert it was nice to see a security guard standing in the parking lot in front of the hotel.  We would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We were looking for a hotel with an indoor pool and enough room for our family and we found it.  We liked that it was on our way to NRG Stadium so we could relax before our day at the Rodeo. Even though it was not close to the stadium, we chose this hotel for the size of rooms, indoor pool, and not having to drive thru downtown morning traffic to head back home.  The room was spacious and clean, with a cozy gas fireplace.  We feel the room could use a updated range.  They need to change the eggs they use for their breakfast buffet.  The eggs tasted like plastic, no amount of salt/pepper or salsa could save them.  When we arrived late from the concert it was nice to see a security guard standing in the parking lot in front of the hotel.  We would stay here again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r242912507-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
@@ -794,6 +1178,51 @@
     <t>My travel was for a house hunting trip with my 2yo son.  This was a very nice hotel, easy to find, wonderful staff and great breakfast.  I stayed in a 1bedroom and it was great!  The staff was great and went above and beyond.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r221892127-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221892127</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>I keep coming back!</t>
+  </si>
+  <si>
+    <t>I love this hotel! The staff always goes above and beyond when I stay. The bed is comfortable, the room is spacious, snacks are available when you check in, the pool and hot tub are welcoming and breakfast is included. I would give this location five stars, except that I am intolerant of gluten and it really limits my options in the morning, so I wish there was more offered for people like me besides meat and eggs.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I love this hotel! The staff always goes above and beyond when I stay. The bed is comfortable, the room is spacious, snacks are available when you check in, the pool and hot tub are welcoming and breakfast is included. I would give this location five stars, except that I am intolerant of gluten and it really limits my options in the morning, so I wish there was more offered for people like me besides meat and eggs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r219366772-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219366772</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Better than it first appears!</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights as we were visiting family in the area.The front desk staff were pleasant but the hallways don't give the best first impression - it is quite dated.Having said that, the room was nice and spacious with a very decent size kitchen. The bed was okay but the air conditioning was terribly loud.Breakfast was fine with a good assortment for the kids.I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded September 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights as we were visiting family in the area.The front desk staff were pleasant but the hallways don't give the best first impression - it is quite dated.Having said that, the room was nice and spacious with a very decent size kitchen. The bed was okay but the air conditioning was terribly loud.Breakfast was fine with a good assortment for the kids.I would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r218586043-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -872,6 +1301,54 @@
     <t>The hotel is perfectly located close to the highway and restaurants. Not to mention the rooms are the fantastic apartment style with; bedroom area, living area, office area, full kitchen, fireplace, and bathroom/closet. The fitness center could use a bit of work. Very few dumbells, a shaky bench, two treadmils and an elypitcal. More could be done to that, however the backetball goal outside and tennis court offer more exercise options. There is a small market place that was out of stock fairly often, however the breakfast area has food catered by a neighborhing Wings and Rings with free finger foods and snacks every night. Don't forget the free breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r206196778-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206196778</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Simply a perfect pace to stay</t>
+  </si>
+  <si>
+    <t>As a returning customer for about the tenth time, visiting from Germany  I have to say: its still a great place to stay.Verry convinient area, very nice location with great warm and welcomming staff.It´s all like it should be at a" home away from home"-and even better.Even staff changes here and there over the years, this hotel always manages it to replace it by staff as nice and professional as before.Also a big plus for "Europeans" is that they have "China" for brakfast and dinner instead of Plastic and Foam plates and not as in so many other locations "preesed crude oil" as  plates for hot F&amp;B.Going green on Greens Road....PerfectThanks a million"We will be back"MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>As a returning customer for about the tenth time, visiting from Germany  I have to say: its still a great place to stay.Verry convinient area, very nice location with great warm and welcomming staff.It´s all like it should be at a" home away from home"-and even better.Even staff changes here and there over the years, this hotel always manages it to replace it by staff as nice and professional as before.Also a big plus for "Europeans" is that they have "China" for brakfast and dinner instead of Plastic and Foam plates and not as in so many other locations "preesed crude oil" as  plates for hot F&amp;B.Going green on Greens Road....PerfectThanks a million"We will be back"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r197782532-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197782532</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Excellent Stay, Great Staff</t>
+  </si>
+  <si>
+    <t>We brought a school group here from out of town.  The staff handled our reservations well, took care to prepare enough keys for each student, and offered roll aways for each room.  We had a mix up on the credit card charge (changed after reserving) and they immediately took care of us to make sure the charges were made to the correct account.  Service over and above!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded March 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2014</t>
+  </si>
+  <si>
+    <t>We brought a school group here from out of town.  The staff handled our reservations well, took care to prepare enough keys for each student, and offered roll aways for each room.  We had a mix up on the credit card charge (changed after reserving) and they immediately took care of us to make sure the charges were made to the correct account.  Service over and above!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r189632205-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -941,6 +1418,57 @@
     <t>we had a leak in our roof at home here in Houston. The construction made the house UNlivable for my family,and initially we went to a different hotel chain and weren't disappointed but weren't impressed either. That was basically just to Rooms To Go To Sleep in. we were only expecting the house to be under construction for about a week and our insurance adjuster said that's up at the Residence Inn Willowbrook. Construction being what it is, of course it did not get finished within the week we were allotted which left us in a sticky situation. Since I do have children that go to school in the district it was going to be a problem for us to move to another hotel with availability that was close to the airport, which was not close to us. We spoke with staff who are all so sweet and understanding, we wanted to see if there was anything we could do to help us stay at this hotel. Unfortunately all the rooms are reserved and there was high volume here. Martha and the otherstaff worked  some kind of magic for us and arranged for us too stay in a bigger nicer room rather than are two separate rooms which worked out better for our families needs. They did not have to do that,and the fact that they did help me and my family stay comfortable is why I will give them...we had a leak in our roof at home here in Houston. The construction made the house UNlivable for my family,and initially we went to a different hotel chain and weren't disappointed but weren't impressed either. That was basically just to Rooms To Go To Sleep in. we were only expecting the house to be under construction for about a week and our insurance adjuster said that's up at the Residence Inn Willowbrook. Construction being what it is, of course it did not get finished within the week we were allotted which left us in a sticky situation. Since I do have children that go to school in the district it was going to be a problem for us to move to another hotel with availability that was close to the airport, which was not close to us. We spoke with staff who are all so sweet and understanding, we wanted to see if there was anything we could do to help us stay at this hotel. Unfortunately all the rooms are reserved and there was high volume here. Martha and the otherstaff worked  some kind of magic for us and arranged for us too stay in a bigger nicer room rather than are two separate rooms which worked out better for our families needs. They did not have to do that,and the fact that they did help me and my family stay comfortable is why I will give them 5 stars. Highly recommend this place and I will tell anybody that I know that if they're going out of town or even staying in town that the Residence Inn by Marriott is the place to go. Thanks again and you'll be seeing me and my family again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r182230304-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182230304</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>For a business stay, great!</t>
+  </si>
+  <si>
+    <t>Here for work for weekdays from Oct to the end of Dec 2013 for work and very impressed. Complimentary Buffet breakfast every morning and complimentary happy hour and dinner 3 nights a week. Love the rooms with suite set up, full kitchen with full size fridge, freezer, ice maker. MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded October 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2013</t>
+  </si>
+  <si>
+    <t>Here for work for weekdays from Oct to the end of Dec 2013 for work and very impressed. Complimentary Buffet breakfast every morning and complimentary happy hour and dinner 3 nights a week. Love the rooms with suite set up, full kitchen with full size fridge, freezer, ice maker. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r177941116-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177941116</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>Our temporary home</t>
+  </si>
+  <si>
+    <t>I cannot say enough good things about this hotel.  The staff goes above and beyond to meet our needs with our German Shepherd and 6-month old baby and have become like family.  Gina and Olivia have been especially helpful and genuinely care about making our stay exceptional.  My husband and I are staying here until our house sells out of state and we can buy another house in Houston.  We would rather be here than an apartment or rental house because of the lenient pet policy and other freebies such as the daily breakfast and M-W social hours that are included in the price of our stay.  My mother and stepfather are even going to stay at this hotel with us for an undetermined amount of time while undergoing cancer treatment at MD Anderson because we are so happy here and we feel it will more than meet their needs as well.  This hotel has by far exceeded my expectations and I wouldn't stay anywhere else in this city.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2013</t>
+  </si>
+  <si>
+    <t>I cannot say enough good things about this hotel.  The staff goes above and beyond to meet our needs with our German Shepherd and 6-month old baby and have become like family.  Gina and Olivia have been especially helpful and genuinely care about making our stay exceptional.  My husband and I are staying here until our house sells out of state and we can buy another house in Houston.  We would rather be here than an apartment or rental house because of the lenient pet policy and other freebies such as the daily breakfast and M-W social hours that are included in the price of our stay.  My mother and stepfather are even going to stay at this hotel with us for an undetermined amount of time while undergoing cancer treatment at MD Anderson because we are so happy here and we feel it will more than meet their needs as well.  This hotel has by far exceeded my expectations and I wouldn't stay anywhere else in this city.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r172343941-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -980,9 +1508,6 @@
     <t>Moving to Houston and have 2 months in a hotel.  I started in another for 2 nights, then moved to the Residence Inn - I plan to stay here for the rest of the 2 months.Location is good - right across the street from a mall, and walking distance (1/2 mile) from several restaurants and bars.Staff is very nice and accommodating - they make you feel like they genuinely want to make you happy, and it works! Thanks to Gina and everyone else for making my stay enjoyable!MoreShow less</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>Moving to Houston and have 2 months in a hotel.  I started in another for 2 nights, then moved to the Residence Inn - I plan to stay here for the rest of the 2 months.Location is good - right across the street from a mall, and walking distance (1/2 mile) from several restaurants and bars.Staff is very nice and accommodating - they make you feel like they genuinely want to make you happy, and it works! Thanks to Gina and everyone else for making my stay enjoyable!More</t>
   </si>
   <si>
@@ -1004,6 +1529,57 @@
     <t>Honestly the hotel it self was pretty good, but the service on the other hand was terrible. Any request that was made was scoffed at and was treated as an inconvenience and a waste of their time. I was truly shocked that such a nice hotel had such a rude front desk staff morning.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r166702912-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166702912</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>ONLY place to stay in the area, from now on</t>
+  </si>
+  <si>
+    <t>We used Marriott points to stay during a baseball tournament.  Gina, the front desk auditor and Angie the manager were absolutely wonderful about meeting and surpassing all of our needs and expectations.  The room we got was perfect, clean and definitely family friendly.  Service is not a thing of the past if you go to the right places.  Well never stay anywhere else if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded July 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2013</t>
+  </si>
+  <si>
+    <t>We used Marriott points to stay during a baseball tournament.  Gina, the front desk auditor and Angie the manager were absolutely wonderful about meeting and surpassing all of our needs and expectations.  The room we got was perfect, clean and definitely family friendly.  Service is not a thing of the past if you go to the right places.  Well never stay anywhere else if we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r162160874-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162160874</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>I recently completed 2 stays at this hotel within the past 2 weeks. The staff is fantastic, very friendly and offered to meet our every need. Breakfast was good. It seems like every day they have a couple new things available for breakfast. They even had Eggs Florentine which I thought were delicious (it was my first time eating them).  The rooms are great. Once I stayed in the 2 bedroom suite and the second time in a King Studio.  The price is excellent as other hotels in the area were the same price but didn't include the living room and kitchen. I will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>I recently completed 2 stays at this hotel within the past 2 weeks. The staff is fantastic, very friendly and offered to meet our every need. Breakfast was good. It seems like every day they have a couple new things available for breakfast. They even had Eggs Florentine which I thought were delicious (it was my first time eating them).  The rooms are great. Once I stayed in the 2 bedroom suite and the second time in a King Studio.  The price is excellent as other hotels in the area were the same price but didn't include the living room and kitchen. I will definitely stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r158246150-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1022,12 +1598,6 @@
     <t>January 2013</t>
   </si>
   <si>
-    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded June 5, 2013</t>
-  </si>
-  <si>
-    <t>Responded June 5, 2013</t>
-  </si>
-  <si>
     <t>I was detailed to Houston for 90 days for a work related detail.  I stayed at this hotel and was made to feel like I was at home.  The staff were all polite and courteous.  They knew my name and always greeted me in a welcoming manner.  It was always refreshing to come back from a day at work and chat with the staff.  The food was always good and the coffee was always hot.  The rooms were clean and well maintained.  I would highly recommend this hotel for any stay, long term or short.More</t>
   </si>
   <si>
@@ -1073,6 +1643,57 @@
     <t>My family had a flood in our home. Our insurance company placed us in the Residence Inn Willowbrook when we first arrived we were amazed at the greeting, we received homemaide cookies from a staff member as soon as we arrived. Our room was amazing clean and beautiful 2 bedroom 2 bathroom with a livingroom and a full kitchen. It was as good as home. Our home was under construction for more than 2 months and during this time my children became very close to Gina a staff member, Justine ( I believe that is how you spell it ) a member of managment and Martha the manager. The cleaning staff was just amazing anything I needed they took care of. We grew to love everyone and they all made our stay very wonderful. I wish every hotel was this amazing. I wish there was a way to repay the staff for making our 2 months of horror just a little amazing. Thank you Residence Inn for all your hard work. I must add now that we are back home I miss the smiling faces every morning and afternoon, and I really miss not having to cook or clean everyday.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r152775779-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152775779</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>My Home Away From Home</t>
+  </si>
+  <si>
+    <t>I am in Houston 3 days a week for an extended period of time.  Believe me, business travel is not the glamorous life most would like to believe.  Long hours, infrequent meals, the absence of loved ones, etc. etc., make for some long weeks.Fortunately, the management and staff at the Willowbrook Residence Inn bridge some of these gaps.  Always a hot meal, or just a friendly "hello, Mr. Carlin how was your day?", from Gina is enough to illicit a smile.  I'd be proud to have Gina as an employee of my company.Great leadership is provided by Martha Hicks, who is always around to provide any support you may require.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded March 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2013</t>
+  </si>
+  <si>
+    <t>I am in Houston 3 days a week for an extended period of time.  Believe me, business travel is not the glamorous life most would like to believe.  Long hours, infrequent meals, the absence of loved ones, etc. etc., make for some long weeks.Fortunately, the management and staff at the Willowbrook Residence Inn bridge some of these gaps.  Always a hot meal, or just a friendly "hello, Mr. Carlin how was your day?", from Gina is enough to illicit a smile.  I'd be proud to have Gina as an employee of my company.Great leadership is provided by Martha Hicks, who is always around to provide any support you may require.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r152114867-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152114867</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>Wonderful and enjoyable</t>
+  </si>
+  <si>
+    <t>We have stayed several times in the last few months.  The most recent was during the Houston RV Show.  We stayed 1 week.  Our room was clean and comfortable.  All the employees were nice and friendly.  We are managers at Sunset Point RV Resort in Marble Falls, Texas, and Residence Inn Willowbrook felt like home!   Thanks,  Ed and Carol RobinsonMoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed several times in the last few months.  The most recent was during the Houston RV Show.  We stayed 1 week.  Our room was clean and comfortable.  All the employees were nice and friendly.  We are managers at Sunset Point RV Resort in Marble Falls, Texas, and Residence Inn Willowbrook felt like home!   Thanks,  Ed and Carol RobinsonMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r151130084-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1088,12 +1709,6 @@
     <t>I stayed here with my mum and two kids on a Houston shopping trip. The front desk staff were wonderfully friendly and helpful and we felt welcome from the moment we walked in. Great location for shopping and not far from premium outlets. We will definitely be back. Thank you. MoreShow less</t>
   </si>
   <si>
-    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 18, 2013</t>
-  </si>
-  <si>
-    <t>Responded February 18, 2013</t>
-  </si>
-  <si>
     <t>I stayed here with my mum and two kids on a Houston shopping trip. The front desk staff were wonderfully friendly and helpful and we felt welcome from the moment we walked in. Great location for shopping and not far from premium outlets. We will definitely be back. Thank you. More</t>
   </si>
   <si>
@@ -1136,6 +1751,51 @@
     <t>I stay in a lot of Marriott hotels at varying price points... and the desk clerk when I checked in was the friendliest, most engaged desk clerk I've come across in a long time. It wasn't that I was particularly important - she seemed to remember everyone's name and a little bit about them and talked to them as they came and went while I checked in and I really appreciated it. The rooms are great, too. They've been updated recently and everything was in working order. My suite was spacious and the bed was comfortable. Breakfast is the standard eggs, sausage, french toast, and waffles you find at any Residence Inn - not the greatest but not bad either. If your travels take you to this corner of Houston suburbia, stay here. The hotel is great and the mall is convenient.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r146640058-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146640058</t>
+  </si>
+  <si>
+    <t>12/02/2012</t>
+  </si>
+  <si>
+    <t>Great choice at a great price!</t>
+  </si>
+  <si>
+    <t>This place has a great location right across from the Macy's at Willowbrook mall.  It was quiet, had great service, and provided a good breakfast daily. We booked through the Marriott website and got a great deal for 3 nights.  I'd definitely stay here again.  Only things I'd change would be to make the in room air conditioner/heating system quieter and ensure that the front desk staff knows where the USA Today newspapers are located. MoreShow less</t>
+  </si>
+  <si>
+    <t>This place has a great location right across from the Macy's at Willowbrook mall.  It was quiet, had great service, and provided a good breakfast daily. We booked through the Marriott website and got a great deal for 3 nights.  I'd definitely stay here again.  Only things I'd change would be to make the in room air conditioner/heating system quieter and ensure that the front desk staff knows where the USA Today newspapers are located. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r143697934-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143697934</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Well equipped, friendly staff, good breakfast</t>
+  </si>
+  <si>
+    <t>Hotel is located next to Willowbrook Mall, and there are some restaurants in walking distance (walk under the bridge to the other side of 249). The hotel checkin was easy, even though they were overbooked (may have been due to Silver status). Bananas and apples were available 24h. Breakfast buffet with good selections. Did not attend their evening meal choices at managers reception. This hotel does not offer free airport shuttle. Yes, would come back here.Room was quiet, was able to turn off the fridge over night. Complimentary Wifi Internet speed was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2013</t>
+  </si>
+  <si>
+    <t>Hotel is located next to Willowbrook Mall, and there are some restaurants in walking distance (walk under the bridge to the other side of 249). The hotel checkin was easy, even though they were overbooked (may have been due to Silver status). Bananas and apples were available 24h. Breakfast buffet with good selections. Did not attend their evening meal choices at managers reception. This hotel does not offer free airport shuttle. Yes, would come back here.Room was quiet, was able to turn off the fridge over night. Complimentary Wifi Internet speed was good.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r143224026-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1151,15 +1811,6 @@
     <t>Had a problem with Rm 119.  Mechanical room next door.  when the A/C went off the walls vibrated and it sounded as if a jet engine was in the room.  Next morning asked front desk staff for different room. Reply, we're fully booked.  Asked again at 9 am, same answer.  That afternoon spoke with young lady who had only been there since August. Took care of the problem in about 5 minutes.  Morning person needs some customer service training.MoreShow less</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
-    <t>martha h, General Manager at Residence Inn Houston Northwest/Willowbrook, responded to this reviewResponded February 19, 2013</t>
-  </si>
-  <si>
-    <t>Responded February 19, 2013</t>
-  </si>
-  <si>
     <t>Had a problem with Rm 119.  Mechanical room next door.  when the A/C went off the walls vibrated and it sounded as if a jet engine was in the room.  Next morning asked front desk staff for different room. Reply, we're fully booked.  Asked again at 9 am, same answer.  That afternoon spoke with young lady who had only been there since August. Took care of the problem in about 5 minutes.  Morning person needs some customer service training.More</t>
   </si>
   <si>
@@ -1208,6 +1859,48 @@
     <t>I recently stayed at this Residence Inn for a week in late August of 2012 for a training class that I attended in North Houston.  I brought my family with me so they could visit museums while I was in class.  The queen bed suite had plenty of room and the full size refrigerator helped us buy enough food to last the week. Also there is an outdoor gas grill that is huge.  We cooked steaks, chicken, and hamburgers on two separate days.  The pool was average size and clean.  On Mondays thru Wednesday there is a evening meal provided by the hotel.  My only complaint would be the basketball court that is not gated and therefore know key card is needed.  On Sunday evening there were about 4 hooligans playing ball that were obviously not guests of the hotel.  How about just removing the basketball goal?  The hotel is located next to a good size mall.   Since I was traveling on government business my rate was lower than what most people would pay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r138141439-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138141439</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Great stay during my wedding</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Residence Inn Willowbrook for my wedding in July.  I had a block of about 20 rooms and all I can say is this hotel was very accommodating for my friends and family.  The rooms were very clean and the staff was excellent.  Definitely left us with memorable service.  I was proud to pick this hotel as everyone loved their rooms.  Thank you for all that you did to help with my wedding block.  Customer service is very important and this hotel definitely understands that.  I will always recommend this hotel for anyone staying in the Willowbrook area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Residence Inn Willowbrook for my wedding in July.  I had a block of about 20 rooms and all I can say is this hotel was very accommodating for my friends and family.  The rooms were very clean and the staff was excellent.  Definitely left us with memorable service.  I was proud to pick this hotel as everyone loved their rooms.  Thank you for all that you did to help with my wedding block.  Customer service is very important and this hotel definitely understands that.  I will always recommend this hotel for anyone staying in the Willowbrook area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r137771304-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137771304</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for five nights on business, and was extremely impressed with the staff and overall quality, given the bargain price. The suite was extremely spacious and clean. I have stayed at many luxury-level hotels with rooms that were not nearly as comfortable and well-appointed. The staff went out of their way to be helpful. The locale is not ideal -- on the freeway, my room overlooking a wind-blown lot and water tower; the only walkable restaurant is a Japanese place. But it is across the street from the Willowbrook Mall, with endless chain-dining options all around. It is a good base for business travelers, and I would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for five nights on business, and was extremely impressed with the staff and overall quality, given the bargain price. The suite was extremely spacious and clean. I have stayed at many luxury-level hotels with rooms that were not nearly as comfortable and well-appointed. The staff went out of their way to be helpful. The locale is not ideal -- on the freeway, my room overlooking a wind-blown lot and water tower; the only walkable restaurant is a Japanese place. But it is across the street from the Willowbrook Mall, with endless chain-dining options all around. It is a good base for business travelers, and I would return.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r136898251-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1256,10 +1949,46 @@
     <t>We needed a place near the northwest side of the city for a medical conference at a hospital and wanted to make a family weekend trip out of it. The beds were a bit firm for my preference, but that truly is my only negative comment and it really is a personal preference. The pool and pool area were excellent...the kids loved the indoor pool.We spend hours in there!  And dried off outside by the fireplace on the patio. We love having a full kitchen even though we did not use it to the fullest potential, but having the cabinet space is GREAT with a family!  Breakfast buffet is amazing!  Never had so many choices for breakfast and the Texas shaped waffles were a hoot for the kids!  The hot items changed each morning we were there, so plenty of options.  The locaion is amazing being so close to the mall, shopping, restaurants, entertainment and the area felt secure. The staff was super friendly, very accomodating no matter the circumstances or request.MoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>We needed a place near the northwest side of the city for a medical conference at a hospital and wanted to make a family weekend trip out of it. The beds were a bit firm for my preference, but that truly is my only negative comment and it really is a personal preference. The pool and pool area were excellent...the kids loved the indoor pool.We spend hours in there!  And dried off outside by the fireplace on the patio. We love having a full kitchen even though we did not use it to the fullest potential, but having the cabinet space is GREAT with a family!  Breakfast buffet is amazing!  Never had so many choices for breakfast and the Texas shaped waffles were a hoot for the kids!  The hot items changed each morning we were there, so plenty of options.  The locaion is amazing being so close to the mall, shopping, restaurants, entertainment and the area felt secure. The staff was super friendly, very accomodating no matter the circumstances or request.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r132281016-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132281016</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>Excellent Accommodation</t>
+  </si>
+  <si>
+    <t>Stayed two nights in a one bedroom suite.  Fully equipped kitchen.  Large, clean comfortable living room with separate bedroom.  Excellent breakfast with bacon, eggs, juice, cereal, waffles, etc.Excellent service from staff, very friendly and helpful.Nice pool, BBQ area and work out room.Excellent location, large mall and restaurants across from the Inn as well as a small amusement park (boats, go carts, mini golf, video arcade).Highly recommend this accommodation</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r120228389-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120228389</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Pissed off Manager!!!!!</t>
+  </si>
+  <si>
+    <t>I booked my reservations online and requested a two bedroom suite.  When I arrived, the front desk was not occupied. I stood there for a couple of minutes before I got the attention of a maid and asked her to get an attendant.  The staff put in a king room without explaining. When I got to the room, I asked them about a double suite I booked.  The attendant told me that all of them were booked.  They told me that the couch lets out into a bed.  I gave the staff a bad report (although the food was great and the place seemed clean).  A couple of days later the manager called me and was pissed.  She said the her staff was very knowlegable and they didnt have any double suites.  She continued and said most of the Residence Inn have them but they dont.  I asked her why did her staff say they were booked if they didnt have any.  She didnt resond to my question.  All she was focused on was her score going down.  She said since I booked it online, then they shouldnt be responsible.  My response was if there's a problem with the online service with booking rooms , then why call me.  Shouldn't she bring it up at the annual conference or call their online service.  There is no way she should be calling me unless she was trying to figure out what...I booked my reservations online and requested a two bedroom suite.  When I arrived, the front desk was not occupied. I stood there for a couple of minutes before I got the attention of a maid and asked her to get an attendant.  The staff put in a king room without explaining. When I got to the room, I asked them about a double suite I booked.  The attendant told me that all of them were booked.  They told me that the couch lets out into a bed.  I gave the staff a bad report (although the food was great and the place seemed clean).  A couple of days later the manager called me and was pissed.  She said the her staff was very knowlegable and they didnt have any double suites.  She continued and said most of the Residence Inn have them but they dont.  I asked her why did her staff say they were booked if they didnt have any.  She didnt resond to my question.  All she was focused on was her score going down.  She said since I booked it online, then they shouldnt be responsible.  My response was if there's a problem with the online service with booking rooms , then why call me.  Shouldn't she bring it up at the annual conference or call their online service.  There is no way she should be calling me unless she was trying to figure out what can she do to make the next stay better.  She told me if I would have called the hotel, I would have gotten the room I requested.  Every room I've booked, I've done it online.  I told her I apologize but she just hung up on me saying I took her score down.  She wasnt concerned about the customer, only her score.  Sadly enough is I'm a Gold Member witn three nights from platinum.  I've stayed at Marriotts ranging from Oxnard, California to Savannah, Ga.  That was by far the worse treatment I've received.  I stayed there from October 28-30, 2011.  Next time I'm in Houston, I will NOT be staying at this one.  You are the weakest link. Goodbye!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I booked my reservations online and requested a two bedroom suite.  When I arrived, the front desk was not occupied. I stood there for a couple of minutes before I got the attention of a maid and asked her to get an attendant.  The staff put in a king room without explaining. When I got to the room, I asked them about a double suite I booked.  The attendant told me that all of them were booked.  They told me that the couch lets out into a bed.  I gave the staff a bad report (although the food was great and the place seemed clean).  A couple of days later the manager called me and was pissed.  She said the her staff was very knowlegable and they didnt have any double suites.  She continued and said most of the Residence Inn have them but they dont.  I asked her why did her staff say they were booked if they didnt have any.  She didnt resond to my question.  All she was focused on was her score going down.  She said since I booked it online, then they shouldnt be responsible.  My response was if there's a problem with the online service with booking rooms , then why call me.  Shouldn't she bring it up at the annual conference or call their online service.  There is no way she should be calling me unless she was trying to figure out what...I booked my reservations online and requested a two bedroom suite.  When I arrived, the front desk was not occupied. I stood there for a couple of minutes before I got the attention of a maid and asked her to get an attendant.  The staff put in a king room without explaining. When I got to the room, I asked them about a double suite I booked.  The attendant told me that all of them were booked.  They told me that the couch lets out into a bed.  I gave the staff a bad report (although the food was great and the place seemed clean).  A couple of days later the manager called me and was pissed.  She said the her staff was very knowlegable and they didnt have any double suites.  She continued and said most of the Residence Inn have them but they dont.  I asked her why did her staff say they were booked if they didnt have any.  She didnt resond to my question.  All she was focused on was her score going down.  She said since I booked it online, then they shouldnt be responsible.  My response was if there's a problem with the online service with booking rooms , then why call me.  Shouldn't she bring it up at the annual conference or call their online service.  There is no way she should be calling me unless she was trying to figure out what can she do to make the next stay better.  She told me if I would have called the hotel, I would have gotten the room I requested.  Every room I've booked, I've done it online.  I told her I apologize but she just hung up on me saying I took her score down.  She wasnt concerned about the customer, only her score.  Sadly enough is I'm a Gold Member witn three nights from platinum.  I've stayed at Marriotts ranging from Oxnard, California to Savannah, Ga.  That was by far the worse treatment I've received.  I stayed there from October 28-30, 2011.  Next time I'm in Houston, I will NOT be staying at this one.  You are the weakest link. Goodbye!!!!!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r119992908-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
@@ -1330,6 +2059,39 @@
     <t>Would suggest this hotel to anyone. Service was great, breakfast was great. Staff was very friendly and helpful. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r117000069-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117000069</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>AMAZING  STAFF IN THE HOTEL</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel a month. My husband is an Engineer, we are from Canada, moving to Texas. Is our second time here.  I have worked in Tourism field for many years.  What really makes a "DIFFERENCE" in a Hotel is THE STAFF. Maria Cisneros that works in the kitchen, has many times gone beyond her duty, to feed breakfast after hours, to our 9 year old boy, to save supper for my husband when he comes too late from work. She has a special touch with children (customers do notice), is a hard worker  and is always smilling trying to make all her customers happy. If you do come to this hotel with children, she is the one to talk to, she has a special gift in the way she connects with them. Also, the housekeepers have been great, like Adela, Luisa, Maria and others. Same for front desk, always willing to help : July, Prisilla, Marisa, Justin. Thank you, we will always come back and recomend this hotel to everyone. What I did not like, is to see so many of the back trees in the property, as palm trees, beautifull flowers die from lack of attention or care. They are not watered, especially in this extremely dry summer and they are just about dead. I have mentioned it, no one seems to care.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel a month. My husband is an Engineer, we are from Canada, moving to Texas. Is our second time here.  I have worked in Tourism field for many years.  What really makes a "DIFFERENCE" in a Hotel is THE STAFF. Maria Cisneros that works in the kitchen, has many times gone beyond her duty, to feed breakfast after hours, to our 9 year old boy, to save supper for my husband when he comes too late from work. She has a special touch with children (customers do notice), is a hard worker  and is always smilling trying to make all her customers happy. If you do come to this hotel with children, she is the one to talk to, she has a special gift in the way she connects with them. Also, the housekeepers have been great, like Adela, Luisa, Maria and others. Same for front desk, always willing to help : July, Prisilla, Marisa, Justin. Thank you, we will always come back and recomend this hotel to everyone. What I did not like, is to see so many of the back trees in the property, as palm trees, beautifull flowers die from lack of attention or care. They are not watered, especially in this extremely dry summer and they are just about dead. I have mentioned it, no one seems to care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r116819423-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116819423</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>Nice place with loud AC's</t>
+  </si>
+  <si>
+    <t>Our AC in our house is out, and after attempting to sleep in 100+ degree bedroom, we headed for cooler surroundings.  This place is very nice, large suites, clean, friendly. The only downfall was the AC unit is in a closet in the bedroom and sounds like a freight train! If you can sleep with noise, then you will love this place. You get a lot of room for your dollar- nice kitchenett and lving room.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r114091960-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1405,6 +2167,45 @@
     <t>The staff is very friendly and greeted everyone with a smile. The rooms were very clean and the layout was awesome.  The pool, exercise room and laundry facilities were all working and in great condition. One of the perks of this Hotel is the daily breakfast, and dinner is served 3 days a week. I will stay at this Hotel next time i visit this side of houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r89108175-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89108175</t>
+  </si>
+  <si>
+    <t>12/05/2010</t>
+  </si>
+  <si>
+    <t>wonderful place</t>
+  </si>
+  <si>
+    <t>You cant find a freindlier group of people and oh so helpfull .rooms are great and so clean</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r88595173-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>88595173</t>
+  </si>
+  <si>
+    <t>11/29/2010</t>
+  </si>
+  <si>
+    <t>Nice location, clean, comfortable and close to shopping mall</t>
+  </si>
+  <si>
+    <t>This hotel and location were perfect for us. The room was quiet and clean. The kitchen had everything we needed (cups, glasses, plates, microwave and dishwasher) to warm up Thanksgiving leftovers. It had nice blackout curtains so we could sleep in. The breakfast had a great variety of items, perfect for the big eaters as well as for the weight and health concious too. It is right across the steeet from a nice mall. It met all our needs and expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>This hotel and location were perfect for us. The room was quiet and clean. The kitchen had everything we needed (cups, glasses, plates, microwave and dishwasher) to warm up Thanksgiving leftovers. It had nice blackout curtains so we could sleep in. The breakfast had a great variety of items, perfect for the big eaters as well as for the weight and health concious too. It is right across the steeet from a nice mall. It met all our needs and expectations.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r86957090-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1435,9 +2236,6 @@
     <t>I am on the road for 21 days out of a month.  This hotel makes me feel very comfortable.  The staff are very friendly.  Whenever I leave and return, they always make me feel welcome.  I always enjoy coming back.</t>
   </si>
   <si>
-    <t>November 2010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r84096935-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1456,6 +2254,45 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r81209521-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>81209521</t>
+  </si>
+  <si>
+    <t>09/27/2010</t>
+  </si>
+  <si>
+    <t>Who said there is no place like home..never stayed here!</t>
+  </si>
+  <si>
+    <t>The staff is very attentive, professional and courteous.  I have had experience with Martha, Juli and the front desk young lady Priscilla (?).  Everything from the wake up calls to the fresh baked cookies.  Great place and great location.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r60948031-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60948031</t>
+  </si>
+  <si>
+    <t>04/10/2010</t>
+  </si>
+  <si>
+    <t>Average Residence Inn</t>
+  </si>
+  <si>
+    <t>I spent Thanksgiving week at this hotel with my family.  I frequent the Residence Inn chain, and I would have to rank this one in the middle of the pack.  We had a one bedroom suite which had the standard decor and amenities.  The location was fine for me since I was visiting family in North Houston.  If you are looking to visit the Galleria, NASA, Galveston, or attend sporting events I would recommend you look for something closer to those areas.The breakfast area contained all of the normal hot items, however most were not up to par.  The bread items like pancakes, biscuits, etc. all seemed powdery and overly flaky for my liking.  The hotel is right next to Willowbrook Mall and other strip center type shopping.  There are also lots of restaurants in the area to choose from.  Note that the hotel is located off of Highway 249 and Beltway 8 (toll road).  Bring your toll money or EZTag.Security seemed fine.  Several police officers seemed to frequent the morning breakfast.  I did however overhear them discuss an incident at a nearby competitor hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>I spent Thanksgiving week at this hotel with my family.  I frequent the Residence Inn chain, and I would have to rank this one in the middle of the pack.  We had a one bedroom suite which had the standard decor and amenities.  The location was fine for me since I was visiting family in North Houston.  If you are looking to visit the Galleria, NASA, Galveston, or attend sporting events I would recommend you look for something closer to those areas.The breakfast area contained all of the normal hot items, however most were not up to par.  The bread items like pancakes, biscuits, etc. all seemed powdery and overly flaky for my liking.  The hotel is right next to Willowbrook Mall and other strip center type shopping.  There are also lots of restaurants in the area to choose from.  Note that the hotel is located off of Highway 249 and Beltway 8 (toll road).  Bring your toll money or EZTag.Security seemed fine.  Several police officers seemed to frequent the morning breakfast.  I did however overhear them discuss an incident at a nearby competitor hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r51862362-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1469,9 +2306,6 @@
   </si>
   <si>
     <t>we stayed here in late November, as a family of 5. After searching for 2 bedroom hotels to stay in Houston, and advice from Tripadvisor, we selected this hotel. Firstly, it is one the other side of the city from Hobby Airport, NASA centre. It is a Residence Inn chain, as usual very comfortable for our family. We took advice from previous reviews here, and were very happy. It has the usual facilities for a Residence Inn, including free Internet and breakfast. It does have a lovely INDOOR heated swimming pool, across the road is the Willowbrook Shopping Mall, and nextdoor is a minigolf/gokart fun park.We were lucky to get a good rate here and there are plenty of eating places in the vicinity.Front of desk staff were ok. Not overflowing with information concerning local shopping areas or eateries. It is located near an offramp from the freeway, but far enough not to hear road noise.MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2009</t>
   </si>
   <si>
     <t>we stayed here in late November, as a family of 5. After searching for 2 bedroom hotels to stay in Houston, and advice from Tripadvisor, we selected this hotel. Firstly, it is one the other side of the city from Hobby Airport, NASA centre. It is a Residence Inn chain, as usual very comfortable for our family. We took advice from previous reviews here, and were very happy. It has the usual facilities for a Residence Inn, including free Internet and breakfast. It does have a lovely INDOOR heated swimming pool, across the road is the Willowbrook Shopping Mall, and nextdoor is a minigolf/gokart fun park.We were lucky to get a good rate here and there are plenty of eating places in the vicinity.Front of desk staff were ok. Not overflowing with information concerning local shopping areas or eateries. It is located near an offramp from the freeway, but far enough not to hear road noise.More</t>
@@ -1522,6 +2356,42 @@
 Guests use areas of the hotel were very good.  The fitness room was clean and adequate with flat screen TVs to watch during your workout.  The pool looked clean, but I never used it.  The lobby was spacious and comfortable with a great picture on a large flat-screen TV.  The business area consisted of 2 PCs in part of the lobby; the connection was fast and the screen resolution sharp.  Guests with wireless laptops were able to...We enjoyed our stay at the Residence Inn at Willowbrook.  We would definitely stay here again!The two-bedroom suite was perfect for a trip with extended family for a four-day weekend.  We could not have had better accomodations.  The suite included a living room/kitchen which was attractive, clean, and comfortable.  Each bedroom had a comfortable queen-size bed and its own bath.  The bathrooms had separate bathing and vanity areas.  Everything was clean and neat with a feeling of being new.  The suite included a TV (not flat screen, but good) in each bedroom as well as the living room which was nice for spending downtime at the hotel.Breakfast was a tasty feast every morning!  The daily offerings were eggs, sausage, oatmeal, waffles, toppings (pecans, raisins, brown sugar, whipped cream, cheese), yogurt, fresh fruit, cut fruit, biscuits, breads, doughnuts, cereal, milk, juices, coffee, and tea.  Some days included items such as pancakes and gravy.  The breakfast staff were efficient, clean, cheerful, and helpful.Guests use areas of the hotel were very good.  The fitness room was clean and adequate with flat screen TVs to watch during your workout.  The pool looked clean, but I never used it.  The lobby was spacious and comfortable with a great picture on a large flat-screen TV.  The business area consisted of 2 PCs in part of the lobby; the connection was fast and the screen resolution sharp.  Guests with wireless laptops were able to work from the breakfast area and lobby.Everyone working at the hotel from front desk, to housekeeping, to maintenance worked hard to make the guests feel welcome and comfortable.  We were extremely satisfied with this choice for our stay in northwest Houston.  The weekend discount made the hotel affordable for our visit with family.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r36137480-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>36137480</t>
+  </si>
+  <si>
+    <t>07/29/2009</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>This is a very nice Residence Inn, with all the amenities, and wonderful service.  The location is safe and near a nice mall and lots of places to eat.  The rooms were clean however the fridge and stove tops were a bit aged however in good condition.  They ususally serve a nice meal 3 nights a week or so catered from a local restaurant.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r29633667-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>29633667</t>
+  </si>
+  <si>
+    <t>05/09/2009</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>It was a good Hotel .Staff  were good and Hotel was well maintained.</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r18053050-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -1537,9 +2407,6 @@
     <t>This place is great. There is a seperate living area with sofa and chair, desk area, kitchen with dishwasher, cookware, stove, full size microwave and refrigerator.  It is just like being in an apartment.  The pool area was really nice and big.  Everything from the room to the pool area was so clean.  Even the breakfast had everything you could want  ,eggs, sausage, pancakes, waffles, oatmeal, cereal, toast,  danishes, ok, I could go on and on. Anyway I would surely stay here again and again if I am ever back in the area. There is also a mall across the street and several restaurants very nearby.  There isn't anything bad that I could say about this place.  We had a very pleasant stay.MoreShow less</t>
   </si>
   <si>
-    <t>July 2008</t>
-  </si>
-  <si>
     <t>This place is great. There is a seperate living area with sofa and chair, desk area, kitchen with dishwasher, cookware, stove, full size microwave and refrigerator.  It is just like being in an apartment.  The pool area was really nice and big.  Everything from the room to the pool area was so clean.  Even the breakfast had everything you could want  ,eggs, sausage, pancakes, waffles, oatmeal, cereal, toast,  danishes, ok, I could go on and on. Anyway I would surely stay here again and again if I am ever back in the area. There is also a mall across the street and several restaurants very nearby.  There isn't anything bad that I could say about this place.  We had a very pleasant stay.More</t>
   </si>
   <si>
@@ -1574,6 +2441,42 @@
   </si>
   <si>
     <t>Located just off the highway by a mall. Quiet. Clean. We were able to book a two bedroom two bath suite with a kitchen for the five of us. (using Marriot points, bonus!) Good morning breakfast with hot items. Indoor pool with a hottub. Small workout room but they had a small fridge in there with iced towels. (nice touch) About 1 hour and 15 minutes from Galveston. I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r10056317-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10056317</t>
+  </si>
+  <si>
+    <t>10/08/2007</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Returned to this hotel in order to do the Race For The Cure in Houston--little further out, but worth it.  Stayed 5-6 Oct 07.  No problem in receiving a late check out for the 6th.  Room was clean and comfortable.   Always enjoy the pool and whirlpool (clean)--was short on towels though.  I'd stay again.  Great restaurant down the road (Willie's); however, there are closer ones on the other side of Hwy 249.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r6717899-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6717899</t>
+  </si>
+  <si>
+    <t>01/29/2007</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>I only stayed at this property for one night, but enjoyed my stay very much. The one thing that stood out more than anything else is that this place is very quiet. Probably the quietest hotel I've ever stayed at. Maybe it wasn't full or maybe it was something else, but it was peaceful, none the less. They provide some light appetizers in the evening and have a great breakfast in the morning. Clean rooms with comfortable beds. Probably a dozen restaurants within a mile. The staff left a little to be desired, but other than that, everything exceeded my expectations.</t>
+  </si>
+  <si>
+    <t>January 2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d266145-r6021429-Residence_Inn_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
@@ -2162,7 +3065,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2171,13 +3074,13 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
       <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -2229,10 +3132,10 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
@@ -2240,24 +3143,20 @@
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2273,40 +3172,42 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
@@ -2316,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2338,56 +3239,56 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
       <c r="O5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
         <v>82</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -2403,42 +3304,40 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>89</v>
       </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
-      </c>
       <c r="O6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -2448,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>92</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2470,34 +3369,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2509,13 +3408,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
         <v>100</v>
-      </c>
-      <c r="X7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -2531,52 +3430,56 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>106</v>
       </c>
-      <c r="L8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>108</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
         <v>109</v>
-      </c>
-      <c r="X8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -2592,42 +3495,40 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
         <v>112</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>113</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>114</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>115</v>
       </c>
-      <c r="L9" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
       <c r="O9" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2637,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
         <v>117</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>118</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -2659,36 +3560,38 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>120</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>121</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>122</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>123</v>
-      </c>
-      <c r="L10" t="s">
-        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="n">
@@ -2702,13 +3605,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
         <v>126</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>127</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -2724,56 +3627,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>129</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>130</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>131</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>132</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>133</v>
       </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>134</v>
-      </c>
       <c r="O11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
         <v>135</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>136</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -2789,58 +3688,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>138</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>139</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>140</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>141</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
         <v>142</v>
       </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2856,7 +3749,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2865,28 +3758,30 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
       <c r="R13" t="n">
         <v>4</v>
       </c>
@@ -2899,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -2921,7 +3816,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2930,25 +3825,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2960,13 +3855,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -2982,52 +3877,58 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>160</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>165</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
-      <c r="P15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -3043,7 +3944,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3052,43 +3953,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
@@ -3104,7 +4009,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3113,43 +4018,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -3165,7 +4076,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3174,25 +4085,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3204,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
@@ -3226,7 +4137,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3235,32 +4146,36 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
       </c>
-      <c r="P19" t="s"/>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -3311,19 +4226,19 @@
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -3332,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
@@ -3354,41 +4269,39 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" t="s">
         <v>213</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>214</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
         <v>215</v>
       </c>
-      <c r="K21" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" t="s">
-        <v>217</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>218</v>
-      </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
@@ -3399,13 +4312,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
@@ -3421,7 +4334,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3430,43 +4343,47 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
@@ -3482,7 +4399,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3491,33 +4408,31 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -3527,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="X23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
@@ -3549,7 +4464,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3558,45 +4473,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>231</v>
+      </c>
+      <c r="X24" t="s">
+        <v>232</v>
+      </c>
       <c r="Y24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
@@ -3612,7 +4525,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3621,47 +4534,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
@@ -3677,56 +4586,52 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>254</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>255</v>
-      </c>
-      <c r="J26" t="s">
-        <v>256</v>
-      </c>
-      <c r="K26" t="s">
-        <v>257</v>
-      </c>
-      <c r="L26" t="s">
-        <v>258</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>252</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
@@ -3742,62 +4647,52 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
         <v>262</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>254</v>
+      </c>
+      <c r="O27" t="s">
         <v>263</v>
       </c>
-      <c r="J27" t="s">
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
         <v>264</v>
       </c>
-      <c r="K27" t="s">
+      <c r="X27" t="s">
         <v>265</v>
       </c>
-      <c r="L27" t="s">
+      <c r="Y27" t="s">
         <v>266</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>267</v>
-      </c>
-      <c r="O27" t="s">
-        <v>72</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
-      <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="s">
-        <v>268</v>
-      </c>
-      <c r="X27" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="28">
@@ -3813,62 +4708,58 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" t="s">
         <v>271</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>272</v>
-      </c>
-      <c r="J28" t="s">
-        <v>273</v>
-      </c>
-      <c r="K28" t="s">
-        <v>274</v>
-      </c>
-      <c r="L28" t="s">
-        <v>275</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>276</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="X28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
@@ -3884,62 +4775,52 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s">
         <v>280</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
         <v>281</v>
       </c>
-      <c r="J29" t="s">
+      <c r="X29" t="s">
         <v>282</v>
       </c>
-      <c r="K29" t="s">
+      <c r="Y29" t="s">
         <v>283</v>
-      </c>
-      <c r="L29" t="s">
-        <v>284</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>267</v>
-      </c>
-      <c r="O29" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
-      <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
-        <v>285</v>
-      </c>
-      <c r="X29" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="30">
@@ -3955,62 +4836,52 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" t="s">
+        <v>287</v>
+      </c>
+      <c r="L30" t="s">
         <v>288</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
         <v>289</v>
       </c>
-      <c r="J30" t="s">
+      <c r="X30" t="s">
         <v>290</v>
       </c>
-      <c r="K30" t="s">
+      <c r="Y30" t="s">
         <v>291</v>
-      </c>
-      <c r="L30" t="s">
-        <v>292</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>293</v>
-      </c>
-      <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
-      <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
-        <v>285</v>
-      </c>
-      <c r="X30" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="31">
@@ -4026,58 +4897,52 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s">
         <v>295</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>296</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
         <v>297</v>
       </c>
-      <c r="K31" t="s">
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
         <v>298</v>
       </c>
-      <c r="L31" t="s">
+      <c r="X31" t="s">
         <v>299</v>
       </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
-      <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="Y31" t="s">
         <v>300</v>
-      </c>
-      <c r="X31" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="32">
@@ -4093,58 +4958,52 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
         <v>303</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>304</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>305</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>297</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
         <v>306</v>
       </c>
-      <c r="L32" t="s">
+      <c r="X32" t="s">
         <v>307</v>
       </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
-      <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="Y32" t="s">
         <v>308</v>
-      </c>
-      <c r="X32" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="33">
@@ -4160,62 +5019,48 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>310</v>
+      </c>
+      <c r="J33" t="s">
         <v>311</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>312</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>313</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>314</v>
       </c>
-      <c r="L33" t="s">
+      <c r="X33" t="s">
         <v>315</v>
       </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="Y33" t="s">
         <v>316</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>308</v>
-      </c>
-      <c r="X33" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="34">
@@ -4231,62 +5076,58 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>318</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>319</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>320</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>321</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>322</v>
-      </c>
-      <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="s">
-        <v>316</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
       </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
         <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="X34" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="Y34" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
@@ -4302,7 +5143,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4311,38 +5152,34 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
       </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
       <c r="R35" t="n">
         <v>5</v>
       </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4351,13 +5188,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="X35" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y35" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
@@ -4373,7 +5210,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4382,49 +5219,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J36" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="N36" t="s">
+        <v>340</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="X36" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="Y36" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37">
@@ -4440,7 +5271,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4449,53 +5280,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
+        <v>345</v>
+      </c>
+      <c r="J37" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" t="s">
+        <v>347</v>
+      </c>
+      <c r="L37" t="s">
+        <v>348</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
         <v>340</v>
       </c>
-      <c r="J37" t="s">
-        <v>341</v>
-      </c>
-      <c r="K37" t="s">
-        <v>342</v>
-      </c>
-      <c r="L37" t="s">
-        <v>343</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>329</v>
-      </c>
       <c r="O37" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="X37" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Y37" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
@@ -4511,7 +5332,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4520,43 +5341,47 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J38" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K38" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="X38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
@@ -4572,7 +5397,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4581,53 +5406,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="X39" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="Y39" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40">
@@ -4643,7 +5464,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4652,51 +5473,45 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
       </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>352</v>
-      </c>
-      <c r="X40" t="s">
-        <v>353</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41">
@@ -4712,7 +5527,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4721,53 +5536,47 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42">
@@ -4783,7 +5592,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4792,35 +5601,29 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K42" t="s">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="L42" t="s">
+        <v>386</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
         <v>380</v>
       </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>381</v>
-      </c>
       <c r="O42" t="s">
-        <v>72</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
         <v>5</v>
       </c>
@@ -4832,13 +5635,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="X42" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="Y42" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
@@ -4854,7 +5657,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4863,53 +5666,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="J43" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K43" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="X43" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
@@ -4925,7 +5722,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4934,49 +5731,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>402</v>
+      </c>
+      <c r="X44" t="s">
+        <v>403</v>
+      </c>
       <c r="Y44" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
@@ -4992,7 +5787,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5001,49 +5796,53 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J45" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>411</v>
+      </c>
+      <c r="X45" t="s">
+        <v>412</v>
+      </c>
       <c r="Y45" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46">
@@ -5059,7 +5858,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5068,49 +5867,53 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="K46" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>420</v>
+      </c>
+      <c r="X46" t="s">
+        <v>421</v>
+      </c>
       <c r="Y46" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47">
@@ -5126,7 +5929,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5135,41 +5938,41 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="J47" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="K47" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="L47" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="O47" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -5177,7 +5980,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48">
@@ -5193,7 +5996,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5202,25 +6005,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="J48" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="K48" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5241,10 +6044,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>436</v>
+      </c>
+      <c r="X48" t="s">
+        <v>437</v>
+      </c>
       <c r="Y48" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49">
@@ -5260,7 +6067,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5269,22 +6076,26 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="J49" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="K49" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>410</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
@@ -5295,7 +6106,7 @@
         <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -5305,13 +6116,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="X49" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="Y49" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50">
@@ -5327,7 +6138,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5336,49 +6147,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="L50" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
       </c>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="X50" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Y50" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51">
@@ -5394,7 +6209,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5403,34 +6218,30 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="J51" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="K51" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="L51" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
-      <c r="N51" t="s">
-        <v>444</v>
-      </c>
-      <c r="O51" t="s">
-        <v>53</v>
-      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5443,13 +6254,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="X51" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Y51" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52">
@@ -5465,7 +6276,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5474,43 +6285,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="J52" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="K52" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="L52" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
-      <c r="N52" t="s">
-        <v>453</v>
-      </c>
-      <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="X52" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="Y52" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53">
@@ -5526,7 +6343,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5535,45 +6352,53 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="J53" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="K53" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="L53" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>475</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
         <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>476</v>
+      </c>
+      <c r="X53" t="s">
+        <v>477</v>
+      </c>
       <c r="Y53" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54">
@@ -5589,7 +6414,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5598,26 +6423,22 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="J54" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="K54" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="L54" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
-      <c r="N54" t="s">
-        <v>465</v>
-      </c>
-      <c r="O54" t="s">
-        <v>53</v>
-      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
       <c r="P54" t="n">
         <v>5</v>
       </c>
@@ -5637,10 +6458,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>484</v>
+      </c>
+      <c r="X54" t="s">
+        <v>485</v>
+      </c>
       <c r="Y54" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55">
@@ -5656,7 +6481,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5665,25 +6490,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="J55" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="K55" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="L55" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5704,10 +6529,14 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>484</v>
+      </c>
+      <c r="X55" t="s">
+        <v>485</v>
+      </c>
       <c r="Y55" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56">
@@ -5723,7 +6552,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5732,49 +6561,53 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="J56" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="K56" t="s">
+        <v>496</v>
+      </c>
+      <c r="L56" t="s">
+        <v>497</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
         <v>475</v>
       </c>
-      <c r="L56" t="s">
-        <v>476</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4</v>
-      </c>
-      <c r="N56" t="s">
-        <v>477</v>
-      </c>
       <c r="O56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>484</v>
+      </c>
+      <c r="X56" t="s">
+        <v>485</v>
+      </c>
       <c r="Y56" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57">
@@ -5790,7 +6623,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5799,26 +6632,22 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="J57" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="K57" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="L57" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
-      <c r="N57" t="s">
-        <v>484</v>
-      </c>
-      <c r="O57" t="s">
-        <v>53</v>
-      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
       <c r="P57" t="n">
         <v>5</v>
       </c>
@@ -5838,10 +6667,14 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>504</v>
+      </c>
+      <c r="X57" t="s">
+        <v>505</v>
+      </c>
       <c r="Y57" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58">
@@ -5857,7 +6690,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5866,25 +6699,25 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="J58" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="K58" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="L58" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5905,10 +6738,14 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>513</v>
+      </c>
+      <c r="X58" t="s">
+        <v>514</v>
+      </c>
       <c r="Y58" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59">
@@ -5924,7 +6761,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5933,25 +6770,25 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="J59" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="K59" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="L59" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5972,10 +6809,14 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>513</v>
+      </c>
+      <c r="X59" t="s">
+        <v>514</v>
+      </c>
       <c r="Y59" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60">
@@ -5991,7 +6832,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6000,49 +6841,49 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="J60" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="K60" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="L60" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
-      </c>
-      <c r="N60" t="s">
-        <v>504</v>
-      </c>
-      <c r="O60" t="s">
-        <v>72</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
       <c r="P60" t="n">
         <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>484</v>
+      </c>
+      <c r="X60" t="s">
+        <v>485</v>
+      </c>
       <c r="Y60" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61">
@@ -6058,7 +6899,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6067,49 +6908,53 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="J61" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="K61" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="L61" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="O61" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>534</v>
+      </c>
+      <c r="X61" t="s">
+        <v>535</v>
+      </c>
       <c r="Y61" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62">
@@ -6125,7 +6970,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6134,25 +6979,25 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="J62" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="K62" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="L62" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>515</v>
+        <v>542</v>
       </c>
       <c r="O62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6173,10 +7018,14 @@
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>543</v>
+      </c>
+      <c r="X62" t="s">
+        <v>544</v>
+      </c>
       <c r="Y62" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63">
@@ -6192,7 +7041,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6201,35 +7050,53 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="J63" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="K63" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="L63" t="s">
+        <v>550</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
         <v>521</v>
       </c>
-      <c r="M63" t="n">
-        <v>4</v>
-      </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
-      <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
-      <c r="S63" t="s"/>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
       <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>551</v>
+      </c>
+      <c r="X63" t="s">
+        <v>552</v>
+      </c>
       <c r="Y63" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64">
@@ -6245,7 +7112,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6254,43 +7121,2851 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="J64" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="K64" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="L64" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
+      <c r="N64" t="s">
+        <v>521</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>551</v>
+      </c>
+      <c r="X64" t="s">
+        <v>552</v>
+      </c>
       <c r="Y64" t="s">
-        <v>527</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>560</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>561</v>
+      </c>
+      <c r="J65" t="s">
+        <v>562</v>
+      </c>
+      <c r="K65" t="s">
+        <v>563</v>
+      </c>
+      <c r="L65" t="s">
+        <v>564</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>565</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>551</v>
+      </c>
+      <c r="X65" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>567</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>568</v>
+      </c>
+      <c r="J66" t="s">
+        <v>569</v>
+      </c>
+      <c r="K66" t="s">
+        <v>570</v>
+      </c>
+      <c r="L66" t="s">
+        <v>571</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>565</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>551</v>
+      </c>
+      <c r="X66" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>573</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>574</v>
+      </c>
+      <c r="J67" t="s">
+        <v>575</v>
+      </c>
+      <c r="K67" t="s">
+        <v>576</v>
+      </c>
+      <c r="L67" t="s">
+        <v>577</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>551</v>
+      </c>
+      <c r="X67" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>579</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>580</v>
+      </c>
+      <c r="J68" t="s">
+        <v>581</v>
+      </c>
+      <c r="K68" t="s">
+        <v>582</v>
+      </c>
+      <c r="L68" t="s">
+        <v>583</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>584</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>585</v>
+      </c>
+      <c r="X68" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>588</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>589</v>
+      </c>
+      <c r="J69" t="s">
+        <v>590</v>
+      </c>
+      <c r="K69" t="s">
+        <v>591</v>
+      </c>
+      <c r="L69" t="s">
+        <v>592</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>584</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>585</v>
+      </c>
+      <c r="X69" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>594</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>595</v>
+      </c>
+      <c r="J70" t="s">
+        <v>596</v>
+      </c>
+      <c r="K70" t="s">
+        <v>113</v>
+      </c>
+      <c r="L70" t="s">
+        <v>597</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>598</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>585</v>
+      </c>
+      <c r="X70" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>600</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>601</v>
+      </c>
+      <c r="J71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K71" t="s">
+        <v>603</v>
+      </c>
+      <c r="L71" t="s">
+        <v>604</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>605</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>606</v>
+      </c>
+      <c r="X71" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>609</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>610</v>
+      </c>
+      <c r="J72" t="s">
+        <v>611</v>
+      </c>
+      <c r="K72" t="s">
+        <v>612</v>
+      </c>
+      <c r="L72" t="s">
+        <v>613</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>614</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>606</v>
+      </c>
+      <c r="X72" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>616</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>617</v>
+      </c>
+      <c r="J73" t="s">
+        <v>618</v>
+      </c>
+      <c r="K73" t="s">
+        <v>619</v>
+      </c>
+      <c r="L73" t="s">
+        <v>620</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>621</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>623</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>624</v>
+      </c>
+      <c r="J74" t="s">
+        <v>625</v>
+      </c>
+      <c r="K74" t="s">
+        <v>626</v>
+      </c>
+      <c r="L74" t="s">
+        <v>627</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>605</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>628</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>629</v>
+      </c>
+      <c r="J75" t="s">
+        <v>630</v>
+      </c>
+      <c r="K75" t="s">
+        <v>631</v>
+      </c>
+      <c r="L75" t="s">
+        <v>632</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>633</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>634</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>635</v>
+      </c>
+      <c r="J76" t="s">
+        <v>636</v>
+      </c>
+      <c r="K76" t="s">
+        <v>637</v>
+      </c>
+      <c r="L76" t="s">
+        <v>638</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>621</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>640</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>641</v>
+      </c>
+      <c r="J77" t="s">
+        <v>642</v>
+      </c>
+      <c r="K77" t="s">
+        <v>643</v>
+      </c>
+      <c r="L77" t="s">
+        <v>644</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>645</v>
+      </c>
+      <c r="O77" t="s">
+        <v>142</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>646</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>647</v>
+      </c>
+      <c r="J78" t="s">
+        <v>648</v>
+      </c>
+      <c r="K78" t="s">
+        <v>649</v>
+      </c>
+      <c r="L78" t="s">
+        <v>650</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>651</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>653</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>654</v>
+      </c>
+      <c r="J79" t="s">
+        <v>655</v>
+      </c>
+      <c r="K79" t="s">
+        <v>656</v>
+      </c>
+      <c r="L79" t="s">
+        <v>657</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>658</v>
+      </c>
+      <c r="O79" t="s">
+        <v>142</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>660</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>661</v>
+      </c>
+      <c r="J80" t="s">
+        <v>662</v>
+      </c>
+      <c r="K80" t="s">
+        <v>663</v>
+      </c>
+      <c r="L80" t="s">
+        <v>664</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>658</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>665</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>666</v>
+      </c>
+      <c r="J81" t="s">
+        <v>667</v>
+      </c>
+      <c r="K81" t="s">
+        <v>668</v>
+      </c>
+      <c r="L81" t="s">
+        <v>669</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>670</v>
+      </c>
+      <c r="X81" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>673</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>674</v>
+      </c>
+      <c r="J82" t="s">
+        <v>675</v>
+      </c>
+      <c r="K82" t="s">
+        <v>676</v>
+      </c>
+      <c r="L82" t="s">
+        <v>677</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>633</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>679</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>680</v>
+      </c>
+      <c r="J83" t="s">
+        <v>681</v>
+      </c>
+      <c r="K83" t="s">
+        <v>682</v>
+      </c>
+      <c r="L83" t="s">
+        <v>683</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>633</v>
+      </c>
+      <c r="O83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>684</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>685</v>
+      </c>
+      <c r="J84" t="s">
+        <v>686</v>
+      </c>
+      <c r="K84" t="s">
+        <v>687</v>
+      </c>
+      <c r="L84" t="s">
+        <v>688</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>689</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>690</v>
+      </c>
+      <c r="X84" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>693</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>694</v>
+      </c>
+      <c r="J85" t="s">
+        <v>695</v>
+      </c>
+      <c r="K85" t="s">
+        <v>696</v>
+      </c>
+      <c r="L85" t="s">
+        <v>697</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>698</v>
+      </c>
+      <c r="O85" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>699</v>
+      </c>
+      <c r="X85" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>702</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>703</v>
+      </c>
+      <c r="J86" t="s">
+        <v>704</v>
+      </c>
+      <c r="K86" t="s">
+        <v>705</v>
+      </c>
+      <c r="L86" t="s">
+        <v>706</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>707</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>699</v>
+      </c>
+      <c r="X86" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>709</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>710</v>
+      </c>
+      <c r="J87" t="s">
+        <v>711</v>
+      </c>
+      <c r="K87" t="s">
+        <v>712</v>
+      </c>
+      <c r="L87" t="s">
+        <v>713</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>714</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>715</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>716</v>
+      </c>
+      <c r="J88" t="s">
+        <v>717</v>
+      </c>
+      <c r="K88" t="s">
+        <v>718</v>
+      </c>
+      <c r="L88" t="s">
+        <v>719</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>720</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>699</v>
+      </c>
+      <c r="X88" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>722</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>723</v>
+      </c>
+      <c r="J89" t="s">
+        <v>724</v>
+      </c>
+      <c r="K89" t="s">
+        <v>725</v>
+      </c>
+      <c r="L89" t="s">
+        <v>726</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>727</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>728</v>
+      </c>
+      <c r="J90" t="s">
+        <v>729</v>
+      </c>
+      <c r="K90" t="s">
+        <v>730</v>
+      </c>
+      <c r="L90" t="s">
+        <v>731</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>720</v>
+      </c>
+      <c r="O90" t="s">
+        <v>71</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>732</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>733</v>
+      </c>
+      <c r="J91" t="s">
+        <v>734</v>
+      </c>
+      <c r="K91" t="s">
+        <v>735</v>
+      </c>
+      <c r="L91" t="s">
+        <v>736</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>737</v>
+      </c>
+      <c r="O91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>738</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>739</v>
+      </c>
+      <c r="J92" t="s">
+        <v>740</v>
+      </c>
+      <c r="K92" t="s">
+        <v>741</v>
+      </c>
+      <c r="L92" t="s">
+        <v>742</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>743</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>744</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>745</v>
+      </c>
+      <c r="J93" t="s">
+        <v>746</v>
+      </c>
+      <c r="K93" t="s">
+        <v>747</v>
+      </c>
+      <c r="L93" t="s">
+        <v>748</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>749</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>751</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>752</v>
+      </c>
+      <c r="J94" t="s">
+        <v>753</v>
+      </c>
+      <c r="K94" t="s">
+        <v>754</v>
+      </c>
+      <c r="L94" t="s">
+        <v>755</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>749</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>757</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>758</v>
+      </c>
+      <c r="J95" t="s">
+        <v>759</v>
+      </c>
+      <c r="K95" t="s">
+        <v>760</v>
+      </c>
+      <c r="L95" t="s">
+        <v>761</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>762</v>
+      </c>
+      <c r="O95" t="s">
+        <v>71</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>763</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>764</v>
+      </c>
+      <c r="J96" t="s">
+        <v>765</v>
+      </c>
+      <c r="K96" t="s">
+        <v>766</v>
+      </c>
+      <c r="L96" t="s">
+        <v>767</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>768</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>770</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>771</v>
+      </c>
+      <c r="J97" t="s">
+        <v>772</v>
+      </c>
+      <c r="K97" t="s">
+        <v>773</v>
+      </c>
+      <c r="L97" t="s">
+        <v>774</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>775</v>
+      </c>
+      <c r="O97" t="s">
+        <v>71</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>776</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>777</v>
+      </c>
+      <c r="J98" t="s">
+        <v>778</v>
+      </c>
+      <c r="K98" t="s">
+        <v>779</v>
+      </c>
+      <c r="L98" t="s">
+        <v>780</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>781</v>
+      </c>
+      <c r="O98" t="s">
+        <v>71</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>782</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>783</v>
+      </c>
+      <c r="J99" t="s">
+        <v>784</v>
+      </c>
+      <c r="K99" t="s">
+        <v>785</v>
+      </c>
+      <c r="L99" t="s">
+        <v>786</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>781</v>
+      </c>
+      <c r="O99" t="s">
+        <v>71</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>788</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>789</v>
+      </c>
+      <c r="J100" t="s">
+        <v>790</v>
+      </c>
+      <c r="K100" t="s">
+        <v>791</v>
+      </c>
+      <c r="L100" t="s">
+        <v>792</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>793</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>794</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>795</v>
+      </c>
+      <c r="J101" t="s">
+        <v>796</v>
+      </c>
+      <c r="K101" t="s">
+        <v>797</v>
+      </c>
+      <c r="L101" t="s">
+        <v>798</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>793</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>799</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>800</v>
+      </c>
+      <c r="J102" t="s">
+        <v>801</v>
+      </c>
+      <c r="K102" t="s">
+        <v>802</v>
+      </c>
+      <c r="L102" t="s">
+        <v>803</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>804</v>
+      </c>
+      <c r="O102" t="s">
+        <v>387</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>805</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>806</v>
+      </c>
+      <c r="J103" t="s">
+        <v>807</v>
+      </c>
+      <c r="K103" t="s">
+        <v>808</v>
+      </c>
+      <c r="L103" t="s">
+        <v>809</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>810</v>
+      </c>
+      <c r="O103" t="s">
+        <v>71</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>811</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>812</v>
+      </c>
+      <c r="J104" t="s">
+        <v>813</v>
+      </c>
+      <c r="K104" t="s">
+        <v>814</v>
+      </c>
+      <c r="L104" t="s">
+        <v>815</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>816</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>818</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>819</v>
+      </c>
+      <c r="J105" t="s">
+        <v>820</v>
+      </c>
+      <c r="K105" t="s">
+        <v>821</v>
+      </c>
+      <c r="L105" t="s">
+        <v>822</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>823</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>824</v>
+      </c>
+      <c r="J106" t="s">
+        <v>825</v>
+      </c>
+      <c r="K106" t="s">
+        <v>826</v>
+      </c>
+      <c r="L106" t="s">
+        <v>827</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
